--- a/result/拉勾网_数据挖掘.xlsx
+++ b/result/拉勾网_数据挖掘.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView windowWidth="19590" windowHeight="8670"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051">
   <si>
     <t>岗位ID</t>
   </si>
@@ -6174,25 +6174,367 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -6200,17 +6542,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="50">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="50">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -6219,10 +6855,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="555555"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F9F9F9"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -6498,18 +7134,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:R451"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="C223" workbookViewId="0">
+      <selection activeCell="R233" sqref="R233"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
@@ -6568,7 +7201,7 @@
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" t="n">
+      <c r="A2">
         <v>4068321</v>
       </c>
       <c r="B2" t="s">
@@ -6595,7 +7228,7 @@
       <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>29337</v>
       </c>
       <c r="K2" t="s">
@@ -6624,7 +7257,7 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" t="n">
+      <c r="A3">
         <v>4068013</v>
       </c>
       <c r="B3" t="s">
@@ -6651,7 +7284,7 @@
       <c r="I3" t="s">
         <v>40</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>160065</v>
       </c>
       <c r="K3" t="s">
@@ -6680,7 +7313,7 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" t="n">
+      <c r="A4">
         <v>4067986</v>
       </c>
       <c r="B4" t="s">
@@ -6707,7 +7340,7 @@
       <c r="I4" t="s">
         <v>51</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>451</v>
       </c>
       <c r="K4" t="s">
@@ -6736,7 +7369,7 @@
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" t="n">
+      <c r="A5">
         <v>4056728</v>
       </c>
       <c r="B5" t="s">
@@ -6763,7 +7396,7 @@
       <c r="I5" t="s">
         <v>58</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
@@ -6784,9 +7417,15 @@
       <c r="P5" t="s">
         <v>31</v>
       </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" t="n">
+      <c r="A6">
         <v>4064998</v>
       </c>
       <c r="B6" t="s">
@@ -6813,7 +7452,7 @@
       <c r="I6" t="s">
         <v>66</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>72555</v>
       </c>
       <c r="K6" t="s">
@@ -6842,7 +7481,7 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" t="n">
+      <c r="A7">
         <v>4068078</v>
       </c>
       <c r="B7" t="s">
@@ -6869,7 +7508,7 @@
       <c r="I7" t="s">
         <v>77</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>13033</v>
       </c>
       <c r="K7" t="s">
@@ -6898,7 +7537,7 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" t="n">
+      <c r="A8">
         <v>3884033</v>
       </c>
       <c r="B8" t="s">
@@ -6925,7 +7564,7 @@
       <c r="I8" t="s">
         <v>87</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>41878</v>
       </c>
       <c r="K8" t="s">
@@ -6954,7 +7593,7 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" t="n">
+      <c r="A9">
         <v>3093149</v>
       </c>
       <c r="B9" t="s">
@@ -6981,7 +7620,7 @@
       <c r="I9" t="s">
         <v>96</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>69091</v>
       </c>
       <c r="K9" t="s">
@@ -7010,7 +7649,7 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" t="n">
+      <c r="A10">
         <v>3845207</v>
       </c>
       <c r="B10" t="s">
@@ -7037,7 +7676,7 @@
       <c r="I10" t="s">
         <v>105</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>4670</v>
       </c>
       <c r="K10" t="s">
@@ -7066,7 +7705,7 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" t="n">
+      <c r="A11">
         <v>4068095</v>
       </c>
       <c r="B11" t="s">
@@ -7093,7 +7732,7 @@
       <c r="I11" t="s">
         <v>115</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>95523</v>
       </c>
       <c r="K11" t="s">
@@ -7122,7 +7761,7 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" t="n">
+      <c r="A12">
         <v>4065260</v>
       </c>
       <c r="B12" t="s">
@@ -7149,7 +7788,7 @@
       <c r="I12" t="s">
         <v>122</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>2474</v>
       </c>
       <c r="K12" t="s">
@@ -7178,7 +7817,7 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" t="n">
+      <c r="A13">
         <v>3986333</v>
       </c>
       <c r="B13" t="s">
@@ -7205,7 +7844,7 @@
       <c r="I13" t="s">
         <v>127</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>57350</v>
       </c>
       <c r="K13" t="s">
@@ -7234,7 +7873,7 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" t="n">
+      <c r="A14">
         <v>3193455</v>
       </c>
       <c r="B14" t="s">
@@ -7261,7 +7900,7 @@
       <c r="I14" t="s">
         <v>134</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>2380</v>
       </c>
       <c r="K14" t="s">
@@ -7290,7 +7929,7 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" t="n">
+      <c r="A15">
         <v>4031496</v>
       </c>
       <c r="B15" t="s">
@@ -7317,7 +7956,7 @@
       <c r="I15" t="s">
         <v>140</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>16869</v>
       </c>
       <c r="K15" t="s">
@@ -7346,7 +7985,7 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" t="n">
+      <c r="A16">
         <v>4011058</v>
       </c>
       <c r="B16" t="s">
@@ -7373,7 +8012,7 @@
       <c r="I16" t="s">
         <v>146</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>50702</v>
       </c>
       <c r="K16" t="s">
@@ -7402,7 +8041,7 @@
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" t="n">
+      <c r="A17">
         <v>4068067</v>
       </c>
       <c r="B17" t="s">
@@ -7429,7 +8068,7 @@
       <c r="I17" t="s">
         <v>77</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>13033</v>
       </c>
       <c r="K17" t="s">
@@ -7458,7 +8097,7 @@
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" t="n">
+      <c r="A18">
         <v>3827305</v>
       </c>
       <c r="B18" t="s">
@@ -7485,7 +8124,7 @@
       <c r="I18" t="s">
         <v>87</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>41878</v>
       </c>
       <c r="K18" t="s">
@@ -7514,7 +8153,7 @@
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" t="n">
+      <c r="A19">
         <v>2472525</v>
       </c>
       <c r="B19" t="s">
@@ -7541,7 +8180,7 @@
       <c r="I19" t="s">
         <v>134</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>2380</v>
       </c>
       <c r="K19" t="s">
@@ -7570,7 +8209,7 @@
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" t="n">
+      <c r="A20">
         <v>3936188</v>
       </c>
       <c r="B20" t="s">
@@ -7597,7 +8236,7 @@
       <c r="I20" t="s">
         <v>161</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>7835</v>
       </c>
       <c r="K20" t="s">
@@ -7626,7 +8265,7 @@
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" t="n">
+      <c r="A21">
         <v>4063312</v>
       </c>
       <c r="B21" t="s">
@@ -7653,7 +8292,7 @@
       <c r="I21" t="s">
         <v>170</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>91</v>
       </c>
       <c r="K21" t="s">
@@ -7682,7 +8321,7 @@
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" t="n">
+      <c r="A22">
         <v>3954556</v>
       </c>
       <c r="B22" t="s">
@@ -7709,7 +8348,7 @@
       <c r="I22" t="s">
         <v>177</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>29151</v>
       </c>
       <c r="K22" t="s">
@@ -7738,7 +8377,7 @@
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" t="n">
+      <c r="A23">
         <v>3920703</v>
       </c>
       <c r="B23" t="s">
@@ -7765,7 +8404,7 @@
       <c r="I23" t="s">
         <v>184</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>110502</v>
       </c>
       <c r="K23" t="s">
@@ -7794,7 +8433,7 @@
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" t="n">
+      <c r="A24">
         <v>4035180</v>
       </c>
       <c r="B24" t="s">
@@ -7821,7 +8460,7 @@
       <c r="I24" t="s">
         <v>191</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>53970</v>
       </c>
       <c r="K24" t="s">
@@ -7850,7 +8489,7 @@
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" t="n">
+      <c r="A25">
         <v>2893975</v>
       </c>
       <c r="B25" t="s">
@@ -7877,7 +8516,7 @@
       <c r="I25" t="s">
         <v>134</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>18165</v>
       </c>
       <c r="K25" t="s">
@@ -7906,7 +8545,7 @@
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" t="n">
+      <c r="A26">
         <v>3865597</v>
       </c>
       <c r="B26" t="s">
@@ -7933,7 +8572,7 @@
       <c r="I26" t="s">
         <v>203</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>284128</v>
       </c>
       <c r="K26" t="s">
@@ -7962,7 +8601,7 @@
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" t="n">
+      <c r="A27">
         <v>4029251</v>
       </c>
       <c r="B27" t="s">
@@ -7989,7 +8628,7 @@
       <c r="I27" t="s">
         <v>210</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>21567</v>
       </c>
       <c r="K27" t="s">
@@ -8018,7 +8657,7 @@
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" t="n">
+      <c r="A28">
         <v>3922992</v>
       </c>
       <c r="B28" t="s">
@@ -8045,7 +8684,7 @@
       <c r="I28" t="s">
         <v>216</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>124195</v>
       </c>
       <c r="K28" t="s">
@@ -8074,7 +8713,7 @@
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" t="n">
+      <c r="A29">
         <v>3494932</v>
       </c>
       <c r="B29" t="s">
@@ -8101,7 +8740,7 @@
       <c r="I29" t="s">
         <v>224</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>53742</v>
       </c>
       <c r="K29" t="s">
@@ -8130,7 +8769,7 @@
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" t="n">
+      <c r="A30">
         <v>2574090</v>
       </c>
       <c r="B30" t="s">
@@ -8157,7 +8796,7 @@
       <c r="I30" t="s">
         <v>232</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>16831</v>
       </c>
       <c r="K30" t="s">
@@ -8186,7 +8825,7 @@
       </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" t="n">
+      <c r="A31">
         <v>2285933</v>
       </c>
       <c r="B31" t="s">
@@ -8213,7 +8852,7 @@
       <c r="I31" t="s">
         <v>238</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>4286</v>
       </c>
       <c r="K31" t="s">
@@ -8242,7 +8881,7 @@
       </c>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" t="n">
+      <c r="A32">
         <v>4018049</v>
       </c>
       <c r="B32" t="s">
@@ -8269,7 +8908,7 @@
       <c r="I32" t="s">
         <v>161</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>7835</v>
       </c>
       <c r="K32" t="s">
@@ -8298,7 +8937,7 @@
       </c>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" t="n">
+      <c r="A33">
         <v>3842050</v>
       </c>
       <c r="B33" t="s">
@@ -8325,7 +8964,7 @@
       <c r="I33" t="s">
         <v>249</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>97882</v>
       </c>
       <c r="K33" t="s">
@@ -8354,7 +8993,7 @@
       </c>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" t="n">
+      <c r="A34">
         <v>3884045</v>
       </c>
       <c r="B34" t="s">
@@ -8381,7 +9020,7 @@
       <c r="I34" t="s">
         <v>87</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>41878</v>
       </c>
       <c r="K34" t="s">
@@ -8410,7 +9049,7 @@
       </c>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" t="n">
+      <c r="A35">
         <v>3582954</v>
       </c>
       <c r="B35" t="s">
@@ -8437,7 +9076,7 @@
       <c r="I35" t="s">
         <v>258</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>125621</v>
       </c>
       <c r="K35" t="s">
@@ -8466,7 +9105,7 @@
       </c>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" t="n">
+      <c r="A36">
         <v>3444397</v>
       </c>
       <c r="B36" t="s">
@@ -8493,7 +9132,7 @@
       <c r="I36" t="s">
         <v>264</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>82991</v>
       </c>
       <c r="K36" t="s">
@@ -8522,7 +9161,7 @@
       </c>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" t="n">
+      <c r="A37">
         <v>3555563</v>
       </c>
       <c r="B37" t="s">
@@ -8549,7 +9188,7 @@
       <c r="I37" t="s">
         <v>270</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>5706</v>
       </c>
       <c r="K37" t="s">
@@ -8578,7 +9217,7 @@
       </c>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" t="n">
+      <c r="A38">
         <v>3891154</v>
       </c>
       <c r="B38" t="s">
@@ -8605,7 +9244,7 @@
       <c r="I38" t="s">
         <v>276</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>57049</v>
       </c>
       <c r="K38" t="s">
@@ -8634,7 +9273,7 @@
       </c>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" t="n">
+      <c r="A39">
         <v>4062537</v>
       </c>
       <c r="B39" t="s">
@@ -8661,7 +9300,7 @@
       <c r="I39" t="s">
         <v>283</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>6868</v>
       </c>
       <c r="K39" t="s">
@@ -8690,7 +9329,7 @@
       </c>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" t="n">
+      <c r="A40">
         <v>3884110</v>
       </c>
       <c r="B40" t="s">
@@ -8717,7 +9356,7 @@
       <c r="I40" t="s">
         <v>290</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>6040</v>
       </c>
       <c r="K40" t="s">
@@ -8746,7 +9385,7 @@
       </c>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" t="n">
+      <c r="A41">
         <v>4063985</v>
       </c>
       <c r="B41" t="s">
@@ -8773,7 +9412,7 @@
       <c r="I41" t="s">
         <v>297</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>534</v>
       </c>
       <c r="K41" t="s">
@@ -8802,7 +9441,7 @@
       </c>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" t="n">
+      <c r="A42">
         <v>3552184</v>
       </c>
       <c r="B42" t="s">
@@ -8829,7 +9468,7 @@
       <c r="I42" t="s">
         <v>303</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>443</v>
       </c>
       <c r="K42" t="s">
@@ -8858,7 +9497,7 @@
       </c>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" t="n">
+      <c r="A43">
         <v>2575906</v>
       </c>
       <c r="B43" t="s">
@@ -8885,7 +9524,7 @@
       <c r="I43" t="s">
         <v>311</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>1537</v>
       </c>
       <c r="K43" t="s">
@@ -8914,7 +9553,7 @@
       </c>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" t="n">
+      <c r="A44">
         <v>3438959</v>
       </c>
       <c r="B44" t="s">
@@ -8941,7 +9580,7 @@
       <c r="I44" t="s">
         <v>317</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>5918</v>
       </c>
       <c r="K44" t="s">
@@ -8970,7 +9609,7 @@
       </c>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" t="n">
+      <c r="A45">
         <v>3694117</v>
       </c>
       <c r="B45" t="s">
@@ -8997,7 +9636,7 @@
       <c r="I45" t="s">
         <v>325</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>21089</v>
       </c>
       <c r="K45" t="s">
@@ -9026,7 +9665,7 @@
       </c>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" t="n">
+      <c r="A46">
         <v>3700129</v>
       </c>
       <c r="B46" t="s">
@@ -9053,7 +9692,7 @@
       <c r="I46" t="s">
         <v>334</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>133</v>
       </c>
       <c r="K46" t="s">
@@ -9082,7 +9721,7 @@
       </c>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" t="n">
+      <c r="A47">
         <v>3847053</v>
       </c>
       <c r="B47" t="s">
@@ -9109,7 +9748,7 @@
       <c r="I47" t="s">
         <v>264</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>82991</v>
       </c>
       <c r="K47" t="s">
@@ -9138,7 +9777,7 @@
       </c>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" t="n">
+      <c r="A48">
         <v>1984803</v>
       </c>
       <c r="B48" t="s">
@@ -9165,7 +9804,7 @@
       <c r="I48" t="s">
         <v>311</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>1537</v>
       </c>
       <c r="K48" t="s">
@@ -9194,7 +9833,7 @@
       </c>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" t="n">
+      <c r="A49">
         <v>2731008</v>
       </c>
       <c r="B49" t="s">
@@ -9221,7 +9860,7 @@
       <c r="I49" t="s">
         <v>161</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>7835</v>
       </c>
       <c r="K49" t="s">
@@ -9250,7 +9889,7 @@
       </c>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" t="n">
+      <c r="A50">
         <v>3773873</v>
       </c>
       <c r="B50" t="s">
@@ -9277,7 +9916,7 @@
       <c r="I50" t="s">
         <v>348</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>766</v>
       </c>
       <c r="K50" t="s">
@@ -9306,7 +9945,7 @@
       </c>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" t="n">
+      <c r="A51">
         <v>3942303</v>
       </c>
       <c r="B51" t="s">
@@ -9333,7 +9972,7 @@
       <c r="I51" t="s">
         <v>356</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>917</v>
       </c>
       <c r="K51" t="s">
@@ -9362,7 +10001,7 @@
       </c>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" t="n">
+      <c r="A52">
         <v>3757232</v>
       </c>
       <c r="B52" t="s">
@@ -9389,7 +10028,7 @@
       <c r="I52" t="s">
         <v>362</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>147472</v>
       </c>
       <c r="K52" t="s">
@@ -9418,7 +10057,7 @@
       </c>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" t="n">
+      <c r="A53">
         <v>3979699</v>
       </c>
       <c r="B53" t="s">
@@ -9445,7 +10084,7 @@
       <c r="I53" t="s">
         <v>370</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>3024</v>
       </c>
       <c r="K53" t="s">
@@ -9474,7 +10113,7 @@
       </c>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" t="n">
+      <c r="A54">
         <v>4065663</v>
       </c>
       <c r="B54" t="s">
@@ -9501,7 +10140,7 @@
       <c r="I54" t="s">
         <v>57</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>245874</v>
       </c>
       <c r="K54" t="s">
@@ -9530,7 +10169,7 @@
       </c>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55" t="n">
+      <c r="A55">
         <v>1572826</v>
       </c>
       <c r="B55" t="s">
@@ -9557,7 +10196,7 @@
       <c r="I55" t="s">
         <v>384</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>13179</v>
       </c>
       <c r="K55" t="s">
@@ -9586,7 +10225,7 @@
       </c>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" t="n">
+      <c r="A56">
         <v>1181475</v>
       </c>
       <c r="B56" t="s">
@@ -9613,7 +10252,7 @@
       <c r="I56" t="s">
         <v>276</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56">
         <v>28393</v>
       </c>
       <c r="K56" t="s">
@@ -9642,7 +10281,7 @@
       </c>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" t="n">
+      <c r="A57">
         <v>3121592</v>
       </c>
       <c r="B57" t="s">
@@ -9669,7 +10308,7 @@
       <c r="I57" t="s">
         <v>397</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57">
         <v>43655</v>
       </c>
       <c r="K57" t="s">
@@ -9698,7 +10337,7 @@
       </c>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" t="n">
+      <c r="A58">
         <v>3948326</v>
       </c>
       <c r="B58" t="s">
@@ -9725,7 +10364,7 @@
       <c r="I58" t="s">
         <v>404</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58">
         <v>929</v>
       </c>
       <c r="K58" t="s">
@@ -9754,7 +10393,7 @@
       </c>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" t="n">
+      <c r="A59">
         <v>4052573</v>
       </c>
       <c r="B59" t="s">
@@ -9781,7 +10420,7 @@
       <c r="I59" t="s">
         <v>146</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59">
         <v>50702</v>
       </c>
       <c r="K59" t="s">
@@ -9810,7 +10449,7 @@
       </c>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" t="n">
+      <c r="A60">
         <v>3221964</v>
       </c>
       <c r="B60" t="s">
@@ -9837,7 +10476,7 @@
       <c r="I60" t="s">
         <v>414</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60">
         <v>49117</v>
       </c>
       <c r="K60" t="s">
@@ -9866,7 +10505,7 @@
       </c>
     </row>
     <row r="61" spans="1:18">
-      <c r="A61" t="n">
+      <c r="A61">
         <v>3739462</v>
       </c>
       <c r="B61" t="s">
@@ -9893,7 +10532,7 @@
       <c r="I61" t="s">
         <v>420</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61">
         <v>226697</v>
       </c>
       <c r="K61" t="s">
@@ -9922,7 +10561,7 @@
       </c>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" t="n">
+      <c r="A62">
         <v>3801617</v>
       </c>
       <c r="B62" t="s">
@@ -9949,7 +10588,7 @@
       <c r="I62" t="s">
         <v>311</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62">
         <v>1537</v>
       </c>
       <c r="K62" t="s">
@@ -9978,7 +10617,7 @@
       </c>
     </row>
     <row r="63" spans="1:18">
-      <c r="A63" t="n">
+      <c r="A63">
         <v>3575805</v>
       </c>
       <c r="B63" t="s">
@@ -10005,7 +10644,7 @@
       <c r="I63" t="s">
         <v>161</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63">
         <v>7835</v>
       </c>
       <c r="K63" t="s">
@@ -10034,7 +10673,7 @@
       </c>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" t="n">
+      <c r="A64">
         <v>3757226</v>
       </c>
       <c r="B64" t="s">
@@ -10061,7 +10700,7 @@
       <c r="I64" t="s">
         <v>362</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64">
         <v>147472</v>
       </c>
       <c r="K64" t="s">
@@ -10090,7 +10729,7 @@
       </c>
     </row>
     <row r="65" spans="1:18">
-      <c r="A65" t="n">
+      <c r="A65">
         <v>3922347</v>
       </c>
       <c r="B65" t="s">
@@ -10117,7 +10756,7 @@
       <c r="I65" t="s">
         <v>57</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65">
         <v>152351</v>
       </c>
       <c r="K65" t="s">
@@ -10146,7 +10785,7 @@
       </c>
     </row>
     <row r="66" spans="1:18">
-      <c r="A66" t="n">
+      <c r="A66">
         <v>2791698</v>
       </c>
       <c r="B66" t="s">
@@ -10173,7 +10812,7 @@
       <c r="I66" t="s">
         <v>442</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J66">
         <v>91273</v>
       </c>
       <c r="K66" t="s">
@@ -10202,7 +10841,7 @@
       </c>
     </row>
     <row r="67" spans="1:18">
-      <c r="A67" t="n">
+      <c r="A67">
         <v>3301094</v>
       </c>
       <c r="B67" t="s">
@@ -10229,7 +10868,7 @@
       <c r="I67" t="s">
         <v>448</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67">
         <v>56746</v>
       </c>
       <c r="K67" t="s">
@@ -10258,7 +10897,7 @@
       </c>
     </row>
     <row r="68" spans="1:18">
-      <c r="A68" t="n">
+      <c r="A68">
         <v>2679562</v>
       </c>
       <c r="B68" t="s">
@@ -10285,7 +10924,7 @@
       <c r="I68" t="s">
         <v>297</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68">
         <v>534</v>
       </c>
       <c r="K68" t="s">
@@ -10314,7 +10953,7 @@
       </c>
     </row>
     <row r="69" spans="1:18">
-      <c r="A69" t="n">
+      <c r="A69">
         <v>1506655</v>
       </c>
       <c r="B69" t="s">
@@ -10341,7 +10980,7 @@
       <c r="I69" t="s">
         <v>57</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J69">
         <v>113697</v>
       </c>
       <c r="K69" t="s">
@@ -10362,9 +11001,15 @@
       <c r="P69" t="s">
         <v>31</v>
       </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:18">
-      <c r="A70" t="n">
+      <c r="A70">
         <v>1823207</v>
       </c>
       <c r="B70" t="s">
@@ -10391,7 +11036,7 @@
       <c r="I70" t="s">
         <v>276</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J70">
         <v>28393</v>
       </c>
       <c r="K70" t="s">
@@ -10420,7 +11065,7 @@
       </c>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71" t="n">
+      <c r="A71">
         <v>3839893</v>
       </c>
       <c r="B71" t="s">
@@ -10447,7 +11092,7 @@
       <c r="I71" t="s">
         <v>459</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71">
         <v>46399</v>
       </c>
       <c r="K71" t="s">
@@ -10476,7 +11121,7 @@
       </c>
     </row>
     <row r="72" spans="1:18">
-      <c r="A72" t="n">
+      <c r="A72">
         <v>3468680</v>
       </c>
       <c r="B72" t="s">
@@ -10503,7 +11148,7 @@
       <c r="I72" t="s">
         <v>465</v>
       </c>
-      <c r="J72" t="n">
+      <c r="J72">
         <v>3328</v>
       </c>
       <c r="K72" t="s">
@@ -10532,7 +11177,7 @@
       </c>
     </row>
     <row r="73" spans="1:18">
-      <c r="A73" t="n">
+      <c r="A73">
         <v>3175854</v>
       </c>
       <c r="B73" t="s">
@@ -10559,7 +11204,7 @@
       <c r="I73" t="s">
         <v>471</v>
       </c>
-      <c r="J73" t="n">
+      <c r="J73">
         <v>204644</v>
       </c>
       <c r="K73" t="s">
@@ -10588,7 +11233,7 @@
       </c>
     </row>
     <row r="74" spans="1:18">
-      <c r="A74" t="n">
+      <c r="A74">
         <v>3440369</v>
       </c>
       <c r="B74" t="s">
@@ -10615,7 +11260,7 @@
       <c r="I74" t="s">
         <v>476</v>
       </c>
-      <c r="J74" t="n">
+      <c r="J74">
         <v>139755</v>
       </c>
       <c r="K74" t="s">
@@ -10644,7 +11289,7 @@
       </c>
     </row>
     <row r="75" spans="1:18">
-      <c r="A75" t="n">
+      <c r="A75">
         <v>2735838</v>
       </c>
       <c r="B75" t="s">
@@ -10671,7 +11316,7 @@
       <c r="I75" t="s">
         <v>483</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75">
         <v>150269</v>
       </c>
       <c r="K75" t="s">
@@ -10700,7 +11345,7 @@
       </c>
     </row>
     <row r="76" spans="1:18">
-      <c r="A76" t="n">
+      <c r="A76">
         <v>4066579</v>
       </c>
       <c r="B76" t="s">
@@ -10727,7 +11372,7 @@
       <c r="I76" t="s">
         <v>489</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76">
         <v>102833</v>
       </c>
       <c r="K76" t="s">
@@ -10756,7 +11401,7 @@
       </c>
     </row>
     <row r="77" spans="1:18">
-      <c r="A77" t="n">
+      <c r="A77">
         <v>2711645</v>
       </c>
       <c r="B77" t="s">
@@ -10783,7 +11428,7 @@
       <c r="I77" t="s">
         <v>311</v>
       </c>
-      <c r="J77" t="n">
+      <c r="J77">
         <v>1537</v>
       </c>
       <c r="K77" t="s">
@@ -10812,7 +11457,7 @@
       </c>
     </row>
     <row r="78" spans="1:18">
-      <c r="A78" t="n">
+      <c r="A78">
         <v>2531857</v>
       </c>
       <c r="B78" t="s">
@@ -10839,7 +11484,7 @@
       <c r="I78" t="s">
         <v>146</v>
       </c>
-      <c r="J78" t="n">
+      <c r="J78">
         <v>50702</v>
       </c>
       <c r="K78" t="s">
@@ -10868,7 +11513,7 @@
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" t="n">
+      <c r="A79">
         <v>2015104</v>
       </c>
       <c r="B79" t="s">
@@ -10895,7 +11540,7 @@
       <c r="I79" t="s">
         <v>500</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J79">
         <v>385</v>
       </c>
       <c r="K79" t="s">
@@ -10924,7 +11569,7 @@
       </c>
     </row>
     <row r="80" spans="1:18">
-      <c r="A80" t="n">
+      <c r="A80">
         <v>3910515</v>
       </c>
       <c r="B80" t="s">
@@ -10951,7 +11596,7 @@
       <c r="I80" t="s">
         <v>506</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J80">
         <v>66311</v>
       </c>
       <c r="K80" t="s">
@@ -10980,7 +11625,7 @@
       </c>
     </row>
     <row r="81" spans="1:18">
-      <c r="A81" t="n">
+      <c r="A81">
         <v>3984532</v>
       </c>
       <c r="B81" t="s">
@@ -11007,7 +11652,7 @@
       <c r="I81" t="s">
         <v>476</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J81">
         <v>139755</v>
       </c>
       <c r="K81" t="s">
@@ -11036,7 +11681,7 @@
       </c>
     </row>
     <row r="82" spans="1:18">
-      <c r="A82" t="n">
+      <c r="A82">
         <v>4031827</v>
       </c>
       <c r="B82" t="s">
@@ -11063,7 +11708,7 @@
       <c r="I82" t="s">
         <v>515</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82">
         <v>29496</v>
       </c>
       <c r="K82" t="s">
@@ -11092,7 +11737,7 @@
       </c>
     </row>
     <row r="83" spans="1:18">
-      <c r="A83" t="n">
+      <c r="A83">
         <v>3219946</v>
       </c>
       <c r="B83" t="s">
@@ -11119,7 +11764,7 @@
       <c r="I83" t="s">
         <v>522</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J83">
         <v>22321</v>
       </c>
       <c r="K83" t="s">
@@ -11148,7 +11793,7 @@
       </c>
     </row>
     <row r="84" spans="1:18">
-      <c r="A84" t="n">
+      <c r="A84">
         <v>3962655</v>
       </c>
       <c r="B84" t="s">
@@ -11175,7 +11820,7 @@
       <c r="I84" t="s">
         <v>529</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J84">
         <v>7382</v>
       </c>
       <c r="K84" t="s">
@@ -11204,7 +11849,7 @@
       </c>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" t="n">
+      <c r="A85">
         <v>4062278</v>
       </c>
       <c r="B85" t="s">
@@ -11231,7 +11876,7 @@
       <c r="I85" t="s">
         <v>536</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J85">
         <v>206460</v>
       </c>
       <c r="K85" t="s">
@@ -11260,7 +11905,7 @@
       </c>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" t="n">
+      <c r="A86">
         <v>3573369</v>
       </c>
       <c r="B86" t="s">
@@ -11287,7 +11932,7 @@
       <c r="I86" t="s">
         <v>384</v>
       </c>
-      <c r="J86" t="n">
+      <c r="J86">
         <v>13179</v>
       </c>
       <c r="K86" t="s">
@@ -11316,7 +11961,7 @@
       </c>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" t="n">
+      <c r="A87">
         <v>596198</v>
       </c>
       <c r="B87" t="s">
@@ -11343,7 +11988,7 @@
       <c r="I87" t="s">
         <v>545</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J87">
         <v>31173</v>
       </c>
       <c r="K87" t="s">
@@ -11372,7 +12017,7 @@
       </c>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" t="n">
+      <c r="A88">
         <v>3743259</v>
       </c>
       <c r="B88" t="s">
@@ -11399,7 +12044,7 @@
       <c r="I88" t="s">
         <v>551</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88">
         <v>175503</v>
       </c>
       <c r="K88" t="s">
@@ -11428,7 +12073,7 @@
       </c>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" t="n">
+      <c r="A89">
         <v>3918540</v>
       </c>
       <c r="B89" t="s">
@@ -11455,7 +12100,7 @@
       <c r="I89" t="s">
         <v>559</v>
       </c>
-      <c r="J89" t="n">
+      <c r="J89">
         <v>155938</v>
       </c>
       <c r="K89" t="s">
@@ -11484,7 +12129,7 @@
       </c>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" t="n">
+      <c r="A90">
         <v>2540090</v>
       </c>
       <c r="B90" t="s">
@@ -11511,7 +12156,7 @@
       <c r="I90" t="s">
         <v>356</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J90">
         <v>917</v>
       </c>
       <c r="K90" t="s">
@@ -11540,7 +12185,7 @@
       </c>
     </row>
     <row r="91" spans="1:18">
-      <c r="A91" t="n">
+      <c r="A91">
         <v>3787093</v>
       </c>
       <c r="B91" t="s">
@@ -11567,7 +12212,7 @@
       <c r="I91" t="s">
         <v>570</v>
       </c>
-      <c r="J91" t="n">
+      <c r="J91">
         <v>22013</v>
       </c>
       <c r="K91" t="s">
@@ -11596,7 +12241,7 @@
       </c>
     </row>
     <row r="92" spans="1:18">
-      <c r="A92" t="n">
+      <c r="A92">
         <v>3627794</v>
       </c>
       <c r="B92" t="s">
@@ -11623,7 +12268,7 @@
       <c r="I92" t="s">
         <v>476</v>
       </c>
-      <c r="J92" t="n">
+      <c r="J92">
         <v>139755</v>
       </c>
       <c r="K92" t="s">
@@ -11652,7 +12297,7 @@
       </c>
     </row>
     <row r="93" spans="1:18">
-      <c r="A93" t="n">
+      <c r="A93">
         <v>3714815</v>
       </c>
       <c r="B93" t="s">
@@ -11679,7 +12324,7 @@
       <c r="I93" t="s">
         <v>146</v>
       </c>
-      <c r="J93" t="n">
+      <c r="J93">
         <v>50702</v>
       </c>
       <c r="K93" t="s">
@@ -11708,7 +12353,7 @@
       </c>
     </row>
     <row r="94" spans="1:18">
-      <c r="A94" t="n">
+      <c r="A94">
         <v>2693573</v>
       </c>
       <c r="B94" t="s">
@@ -11735,7 +12380,7 @@
       <c r="I94" t="s">
         <v>311</v>
       </c>
-      <c r="J94" t="n">
+      <c r="J94">
         <v>1537</v>
       </c>
       <c r="K94" t="s">
@@ -11764,7 +12409,7 @@
       </c>
     </row>
     <row r="95" spans="1:18">
-      <c r="A95" t="n">
+      <c r="A95">
         <v>3396500</v>
       </c>
       <c r="B95" t="s">
@@ -11791,7 +12436,7 @@
       <c r="I95" t="s">
         <v>583</v>
       </c>
-      <c r="J95" t="n">
+      <c r="J95">
         <v>1930</v>
       </c>
       <c r="K95" t="s">
@@ -11820,7 +12465,7 @@
       </c>
     </row>
     <row r="96" spans="1:18">
-      <c r="A96" t="n">
+      <c r="A96">
         <v>3777383</v>
       </c>
       <c r="B96" t="s">
@@ -11847,7 +12492,7 @@
       <c r="I96" t="s">
         <v>589</v>
       </c>
-      <c r="J96" t="n">
+      <c r="J96">
         <v>35996</v>
       </c>
       <c r="K96" t="s">
@@ -11876,7 +12521,7 @@
       </c>
     </row>
     <row r="97" spans="1:18">
-      <c r="A97" t="n">
+      <c r="A97">
         <v>3750209</v>
       </c>
       <c r="B97" t="s">
@@ -11903,7 +12548,7 @@
       <c r="I97" t="s">
         <v>595</v>
       </c>
-      <c r="J97" t="n">
+      <c r="J97">
         <v>68719</v>
       </c>
       <c r="K97" t="s">
@@ -11932,7 +12577,7 @@
       </c>
     </row>
     <row r="98" spans="1:18">
-      <c r="A98" t="n">
+      <c r="A98">
         <v>4056953</v>
       </c>
       <c r="B98" t="s">
@@ -11959,7 +12604,7 @@
       <c r="I98" t="s">
         <v>57</v>
       </c>
-      <c r="J98" t="n">
+      <c r="J98">
         <v>170348</v>
       </c>
       <c r="K98" t="s">
@@ -11988,7 +12633,7 @@
       </c>
     </row>
     <row r="99" spans="1:18">
-      <c r="A99" t="n">
+      <c r="A99">
         <v>3801882</v>
       </c>
       <c r="B99" t="s">
@@ -12015,7 +12660,7 @@
       <c r="I99" t="s">
         <v>105</v>
       </c>
-      <c r="J99" t="n">
+      <c r="J99">
         <v>4670</v>
       </c>
       <c r="K99" t="s">
@@ -12044,7 +12689,7 @@
       </c>
     </row>
     <row r="100" spans="1:18">
-      <c r="A100" t="n">
+      <c r="A100">
         <v>4005325</v>
       </c>
       <c r="B100" t="s">
@@ -12071,7 +12716,7 @@
       <c r="I100" t="s">
         <v>127</v>
       </c>
-      <c r="J100" t="n">
+      <c r="J100">
         <v>57350</v>
       </c>
       <c r="K100" t="s">
@@ -12100,7 +12745,7 @@
       </c>
     </row>
     <row r="101" spans="1:18">
-      <c r="A101" t="n">
+      <c r="A101">
         <v>3957666</v>
       </c>
       <c r="B101" t="s">
@@ -12127,7 +12772,7 @@
       <c r="I101" t="s">
         <v>607</v>
       </c>
-      <c r="J101" t="n">
+      <c r="J101">
         <v>111387</v>
       </c>
       <c r="K101" t="s">
@@ -12156,7 +12801,7 @@
       </c>
     </row>
     <row r="102" spans="1:18">
-      <c r="A102" t="n">
+      <c r="A102">
         <v>3799596</v>
       </c>
       <c r="B102" t="s">
@@ -12183,7 +12828,7 @@
       <c r="I102" t="s">
         <v>290</v>
       </c>
-      <c r="J102" t="n">
+      <c r="J102">
         <v>6040</v>
       </c>
       <c r="K102" t="s">
@@ -12212,7 +12857,7 @@
       </c>
     </row>
     <row r="103" spans="1:18">
-      <c r="A103" t="n">
+      <c r="A103">
         <v>3649987</v>
       </c>
       <c r="B103" t="s">
@@ -12239,7 +12884,7 @@
       <c r="I103" t="s">
         <v>615</v>
       </c>
-      <c r="J103" t="n">
+      <c r="J103">
         <v>4188</v>
       </c>
       <c r="K103" t="s">
@@ -12268,7 +12913,7 @@
       </c>
     </row>
     <row r="104" spans="1:18">
-      <c r="A104" t="n">
+      <c r="A104">
         <v>3565204</v>
       </c>
       <c r="B104" t="s">
@@ -12295,7 +12940,7 @@
       <c r="I104" t="s">
         <v>622</v>
       </c>
-      <c r="J104" t="n">
+      <c r="J104">
         <v>1650</v>
       </c>
       <c r="K104" t="s">
@@ -12324,7 +12969,7 @@
       </c>
     </row>
     <row r="105" spans="1:18">
-      <c r="A105" t="n">
+      <c r="A105">
         <v>3703068</v>
       </c>
       <c r="B105" t="s">
@@ -12351,7 +12996,7 @@
       <c r="I105" t="s">
         <v>628</v>
       </c>
-      <c r="J105" t="n">
+      <c r="J105">
         <v>70037</v>
       </c>
       <c r="K105" t="s">
@@ -12380,7 +13025,7 @@
       </c>
     </row>
     <row r="106" spans="1:18">
-      <c r="A106" t="n">
+      <c r="A106">
         <v>3296739</v>
       </c>
       <c r="B106" t="s">
@@ -12407,7 +13052,7 @@
       <c r="I106" t="s">
         <v>634</v>
       </c>
-      <c r="J106" t="n">
+      <c r="J106">
         <v>33016</v>
       </c>
       <c r="K106" t="s">
@@ -12436,7 +13081,7 @@
       </c>
     </row>
     <row r="107" spans="1:18">
-      <c r="A107" t="n">
+      <c r="A107">
         <v>1399984</v>
       </c>
       <c r="B107" t="s">
@@ -12463,7 +13108,7 @@
       <c r="I107" t="s">
         <v>146</v>
       </c>
-      <c r="J107" t="n">
+      <c r="J107">
         <v>50702</v>
       </c>
       <c r="K107" t="s">
@@ -12492,7 +13137,7 @@
       </c>
     </row>
     <row r="108" spans="1:18">
-      <c r="A108" t="n">
+      <c r="A108">
         <v>3497261</v>
       </c>
       <c r="B108" t="s">
@@ -12519,7 +13164,7 @@
       <c r="I108" t="s">
         <v>641</v>
       </c>
-      <c r="J108" t="n">
+      <c r="J108">
         <v>17751</v>
       </c>
       <c r="K108" t="s">
@@ -12548,7 +13193,7 @@
       </c>
     </row>
     <row r="109" spans="1:18">
-      <c r="A109" t="n">
+      <c r="A109">
         <v>1302830</v>
       </c>
       <c r="B109" t="s">
@@ -12575,7 +13220,7 @@
       <c r="I109" t="s">
         <v>57</v>
       </c>
-      <c r="J109" t="n">
+      <c r="J109">
         <v>436</v>
       </c>
       <c r="K109" t="s">
@@ -12604,7 +13249,7 @@
       </c>
     </row>
     <row r="110" spans="1:18">
-      <c r="A110" t="n">
+      <c r="A110">
         <v>3770497</v>
       </c>
       <c r="B110" t="s">
@@ -12631,7 +13276,7 @@
       <c r="I110" t="s">
         <v>653</v>
       </c>
-      <c r="J110" t="n">
+      <c r="J110">
         <v>54631</v>
       </c>
       <c r="K110" t="s">
@@ -12660,7 +13305,7 @@
       </c>
     </row>
     <row r="111" spans="1:18">
-      <c r="A111" t="n">
+      <c r="A111">
         <v>3952840</v>
       </c>
       <c r="B111" t="s">
@@ -12687,7 +13332,7 @@
       <c r="I111" t="s">
         <v>384</v>
       </c>
-      <c r="J111" t="n">
+      <c r="J111">
         <v>13179</v>
       </c>
       <c r="K111" t="s">
@@ -12716,7 +13361,7 @@
       </c>
     </row>
     <row r="112" spans="1:18">
-      <c r="A112" t="n">
+      <c r="A112">
         <v>3948312</v>
       </c>
       <c r="B112" t="s">
@@ -12743,7 +13388,7 @@
       <c r="I112" t="s">
         <v>404</v>
       </c>
-      <c r="J112" t="n">
+      <c r="J112">
         <v>929</v>
       </c>
       <c r="K112" t="s">
@@ -12772,7 +13417,7 @@
       </c>
     </row>
     <row r="113" spans="1:18">
-      <c r="A113" t="n">
+      <c r="A113">
         <v>3985190</v>
       </c>
       <c r="B113" t="s">
@@ -12799,7 +13444,7 @@
       <c r="I113" t="s">
         <v>666</v>
       </c>
-      <c r="J113" t="n">
+      <c r="J113">
         <v>1575</v>
       </c>
       <c r="K113" t="s">
@@ -12828,7 +13473,7 @@
       </c>
     </row>
     <row r="114" spans="1:18">
-      <c r="A114" t="n">
+      <c r="A114">
         <v>3448769</v>
       </c>
       <c r="B114" t="s">
@@ -12855,7 +13500,7 @@
       <c r="I114" t="s">
         <v>96</v>
       </c>
-      <c r="J114" t="n">
+      <c r="J114">
         <v>69091</v>
       </c>
       <c r="K114" t="s">
@@ -12884,7 +13529,7 @@
       </c>
     </row>
     <row r="115" spans="1:18">
-      <c r="A115" t="n">
+      <c r="A115">
         <v>3038919</v>
       </c>
       <c r="B115" t="s">
@@ -12911,7 +13556,7 @@
       <c r="I115" t="s">
         <v>674</v>
       </c>
-      <c r="J115" t="n">
+      <c r="J115">
         <v>142470</v>
       </c>
       <c r="K115" t="s">
@@ -12940,7 +13585,7 @@
       </c>
     </row>
     <row r="116" spans="1:18">
-      <c r="A116" t="n">
+      <c r="A116">
         <v>2842045</v>
       </c>
       <c r="B116" t="s">
@@ -12967,7 +13612,7 @@
       <c r="I116" t="s">
         <v>680</v>
       </c>
-      <c r="J116" t="n">
+      <c r="J116">
         <v>14983</v>
       </c>
       <c r="K116" t="s">
@@ -12996,7 +13641,7 @@
       </c>
     </row>
     <row r="117" spans="1:18">
-      <c r="A117" t="n">
+      <c r="A117">
         <v>3662597</v>
       </c>
       <c r="B117" t="s">
@@ -13023,7 +13668,7 @@
       <c r="I117" t="s">
         <v>684</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J117">
         <v>38306</v>
       </c>
       <c r="K117" t="s">
@@ -13052,7 +13697,7 @@
       </c>
     </row>
     <row r="118" spans="1:18">
-      <c r="A118" t="n">
+      <c r="A118">
         <v>3825979</v>
       </c>
       <c r="B118" t="s">
@@ -13079,7 +13724,7 @@
       <c r="I118" t="s">
         <v>690</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J118">
         <v>69932</v>
       </c>
       <c r="K118" t="s">
@@ -13108,7 +13753,7 @@
       </c>
     </row>
     <row r="119" spans="1:18">
-      <c r="A119" t="n">
+      <c r="A119">
         <v>2109643</v>
       </c>
       <c r="B119" t="s">
@@ -13135,7 +13780,7 @@
       <c r="I119" t="s">
         <v>311</v>
       </c>
-      <c r="J119" t="n">
+      <c r="J119">
         <v>1537</v>
       </c>
       <c r="K119" t="s">
@@ -13164,7 +13809,7 @@
       </c>
     </row>
     <row r="120" spans="1:18">
-      <c r="A120" t="n">
+      <c r="A120">
         <v>3935556</v>
       </c>
       <c r="B120" t="s">
@@ -13191,7 +13836,7 @@
       <c r="I120" t="s">
         <v>697</v>
       </c>
-      <c r="J120" t="n">
+      <c r="J120">
         <v>8523</v>
       </c>
       <c r="K120" t="s">
@@ -13220,7 +13865,7 @@
       </c>
     </row>
     <row r="121" spans="1:18">
-      <c r="A121" t="n">
+      <c r="A121">
         <v>2884159</v>
       </c>
       <c r="B121" t="s">
@@ -13247,7 +13892,7 @@
       <c r="I121" t="s">
         <v>704</v>
       </c>
-      <c r="J121" t="n">
+      <c r="J121">
         <v>41486</v>
       </c>
       <c r="K121" t="s">
@@ -13276,7 +13921,7 @@
       </c>
     </row>
     <row r="122" spans="1:18">
-      <c r="A122" t="n">
+      <c r="A122">
         <v>2629659</v>
       </c>
       <c r="B122" t="s">
@@ -13303,7 +13948,7 @@
       <c r="I122" t="s">
         <v>146</v>
       </c>
-      <c r="J122" t="n">
+      <c r="J122">
         <v>50702</v>
       </c>
       <c r="K122" t="s">
@@ -13332,7 +13977,7 @@
       </c>
     </row>
     <row r="123" spans="1:18">
-      <c r="A123" t="n">
+      <c r="A123">
         <v>2822184</v>
       </c>
       <c r="B123" t="s">
@@ -13359,7 +14004,7 @@
       <c r="I123" t="s">
         <v>384</v>
       </c>
-      <c r="J123" t="n">
+      <c r="J123">
         <v>13179</v>
       </c>
       <c r="K123" t="s">
@@ -13388,7 +14033,7 @@
       </c>
     </row>
     <row r="124" spans="1:18">
-      <c r="A124" t="n">
+      <c r="A124">
         <v>3749106</v>
       </c>
       <c r="B124" t="s">
@@ -13415,7 +14060,7 @@
       <c r="I124" t="s">
         <v>713</v>
       </c>
-      <c r="J124" t="n">
+      <c r="J124">
         <v>142041</v>
       </c>
       <c r="K124" t="s">
@@ -13444,7 +14089,7 @@
       </c>
     </row>
     <row r="125" spans="1:18">
-      <c r="A125" t="n">
+      <c r="A125">
         <v>3409376</v>
       </c>
       <c r="B125" t="s">
@@ -13471,7 +14116,7 @@
       <c r="I125" t="s">
         <v>719</v>
       </c>
-      <c r="J125" t="n">
+      <c r="J125">
         <v>3564</v>
       </c>
       <c r="K125" t="s">
@@ -13500,7 +14145,7 @@
       </c>
     </row>
     <row r="126" spans="1:18">
-      <c r="A126" t="n">
+      <c r="A126">
         <v>3958869</v>
       </c>
       <c r="B126" t="s">
@@ -13527,7 +14172,7 @@
       <c r="I126" t="s">
         <v>725</v>
       </c>
-      <c r="J126" t="n">
+      <c r="J126">
         <v>40625</v>
       </c>
       <c r="K126" t="s">
@@ -13556,7 +14201,7 @@
       </c>
     </row>
     <row r="127" spans="1:18">
-      <c r="A127" t="n">
+      <c r="A127">
         <v>3698670</v>
       </c>
       <c r="B127" t="s">
@@ -13583,7 +14228,7 @@
       <c r="I127" t="s">
         <v>731</v>
       </c>
-      <c r="J127" t="n">
+      <c r="J127">
         <v>140015</v>
       </c>
       <c r="K127" t="s">
@@ -13612,7 +14257,7 @@
       </c>
     </row>
     <row r="128" spans="1:18">
-      <c r="A128" t="n">
+      <c r="A128">
         <v>3678092</v>
       </c>
       <c r="B128" t="s">
@@ -13639,7 +14284,7 @@
       <c r="I128" t="s">
         <v>737</v>
       </c>
-      <c r="J128" t="n">
+      <c r="J128">
         <v>72720</v>
       </c>
       <c r="K128" t="s">
@@ -13668,7 +14313,7 @@
       </c>
     </row>
     <row r="129" spans="1:18">
-      <c r="A129" t="n">
+      <c r="A129">
         <v>3941032</v>
       </c>
       <c r="B129" t="s">
@@ -13695,7 +14340,7 @@
       <c r="I129" t="s">
         <v>697</v>
       </c>
-      <c r="J129" t="n">
+      <c r="J129">
         <v>8523</v>
       </c>
       <c r="K129" t="s">
@@ -13724,7 +14369,7 @@
       </c>
     </row>
     <row r="130" spans="1:18">
-      <c r="A130" t="n">
+      <c r="A130">
         <v>4038107</v>
       </c>
       <c r="B130" t="s">
@@ -13751,7 +14396,7 @@
       <c r="I130" t="s">
         <v>745</v>
       </c>
-      <c r="J130" t="n">
+      <c r="J130">
         <v>6702</v>
       </c>
       <c r="K130" t="s">
@@ -13780,7 +14425,7 @@
       </c>
     </row>
     <row r="131" spans="1:18">
-      <c r="A131" t="n">
+      <c r="A131">
         <v>3383916</v>
       </c>
       <c r="B131" t="s">
@@ -13807,7 +14452,7 @@
       <c r="I131" t="s">
         <v>264</v>
       </c>
-      <c r="J131" t="n">
+      <c r="J131">
         <v>82991</v>
       </c>
       <c r="K131" t="s">
@@ -13836,7 +14481,7 @@
       </c>
     </row>
     <row r="132" spans="1:18">
-      <c r="A132" t="n">
+      <c r="A132">
         <v>3549885</v>
       </c>
       <c r="B132" t="s">
@@ -13863,7 +14508,7 @@
       <c r="I132" t="s">
         <v>752</v>
       </c>
-      <c r="J132" t="n">
+      <c r="J132">
         <v>7182</v>
       </c>
       <c r="K132" t="s">
@@ -13892,7 +14537,7 @@
       </c>
     </row>
     <row r="133" spans="1:18">
-      <c r="A133" t="n">
+      <c r="A133">
         <v>3653736</v>
       </c>
       <c r="B133" t="s">
@@ -13919,7 +14564,7 @@
       <c r="I133" t="s">
         <v>759</v>
       </c>
-      <c r="J133" t="n">
+      <c r="J133">
         <v>32799</v>
       </c>
       <c r="K133" t="s">
@@ -13948,7 +14593,7 @@
       </c>
     </row>
     <row r="134" spans="1:18">
-      <c r="A134" t="n">
+      <c r="A134">
         <v>3423427</v>
       </c>
       <c r="B134" t="s">
@@ -13975,7 +14620,7 @@
       <c r="I134" t="s">
         <v>404</v>
       </c>
-      <c r="J134" t="n">
+      <c r="J134">
         <v>929</v>
       </c>
       <c r="K134" t="s">
@@ -14004,7 +14649,7 @@
       </c>
     </row>
     <row r="135" spans="1:18">
-      <c r="A135" t="n">
+      <c r="A135">
         <v>3264572</v>
       </c>
       <c r="B135" t="s">
@@ -14031,7 +14676,7 @@
       <c r="I135" t="s">
         <v>767</v>
       </c>
-      <c r="J135" t="n">
+      <c r="J135">
         <v>150256</v>
       </c>
       <c r="K135" t="s">
@@ -14060,7 +14705,7 @@
       </c>
     </row>
     <row r="136" spans="1:18">
-      <c r="A136" t="n">
+      <c r="A136">
         <v>3956591</v>
       </c>
       <c r="B136" t="s">
@@ -14087,7 +14732,7 @@
       <c r="I136" t="s">
         <v>771</v>
       </c>
-      <c r="J136" t="n">
+      <c r="J136">
         <v>54974</v>
       </c>
       <c r="K136" t="s">
@@ -14116,7 +14761,7 @@
       </c>
     </row>
     <row r="137" spans="1:18">
-      <c r="A137" t="n">
+      <c r="A137">
         <v>2688211</v>
       </c>
       <c r="B137" t="s">
@@ -14143,7 +14788,7 @@
       <c r="I137" t="s">
         <v>146</v>
       </c>
-      <c r="J137" t="n">
+      <c r="J137">
         <v>50702</v>
       </c>
       <c r="K137" t="s">
@@ -14172,7 +14817,7 @@
       </c>
     </row>
     <row r="138" spans="1:18">
-      <c r="A138" t="n">
+      <c r="A138">
         <v>3383905</v>
       </c>
       <c r="B138" t="s">
@@ -14199,7 +14844,7 @@
       <c r="I138" t="s">
         <v>264</v>
       </c>
-      <c r="J138" t="n">
+      <c r="J138">
         <v>82991</v>
       </c>
       <c r="K138" t="s">
@@ -14228,7 +14873,7 @@
       </c>
     </row>
     <row r="139" spans="1:18">
-      <c r="A139" t="n">
+      <c r="A139">
         <v>4022906</v>
       </c>
       <c r="B139" t="s">
@@ -14255,7 +14900,7 @@
       <c r="I139" t="s">
         <v>780</v>
       </c>
-      <c r="J139" t="n">
+      <c r="J139">
         <v>87226</v>
       </c>
       <c r="K139" t="s">
@@ -14284,7 +14929,7 @@
       </c>
     </row>
     <row r="140" spans="1:18">
-      <c r="A140" t="n">
+      <c r="A140">
         <v>4004804</v>
       </c>
       <c r="B140" t="s">
@@ -14311,7 +14956,7 @@
       <c r="I140" t="s">
         <v>184</v>
       </c>
-      <c r="J140" t="n">
+      <c r="J140">
         <v>110502</v>
       </c>
       <c r="K140" t="s">
@@ -14340,7 +14985,7 @@
       </c>
     </row>
     <row r="141" spans="1:18">
-      <c r="A141" t="n">
+      <c r="A141">
         <v>4066558</v>
       </c>
       <c r="B141" t="s">
@@ -14367,7 +15012,7 @@
       <c r="I141" t="s">
         <v>789</v>
       </c>
-      <c r="J141" t="n">
+      <c r="J141">
         <v>124262</v>
       </c>
       <c r="K141" t="s">
@@ -14396,7 +15041,7 @@
       </c>
     </row>
     <row r="142" spans="1:18">
-      <c r="A142" t="n">
+      <c r="A142">
         <v>3942291</v>
       </c>
       <c r="B142" t="s">
@@ -14423,7 +15068,7 @@
       <c r="I142" t="s">
         <v>356</v>
       </c>
-      <c r="J142" t="n">
+      <c r="J142">
         <v>917</v>
       </c>
       <c r="K142" t="s">
@@ -14452,7 +15097,7 @@
       </c>
     </row>
     <row r="143" spans="1:18">
-      <c r="A143" t="n">
+      <c r="A143">
         <v>4005180</v>
       </c>
       <c r="B143" t="s">
@@ -14479,7 +15124,7 @@
       <c r="I143" t="s">
         <v>799</v>
       </c>
-      <c r="J143" t="n">
+      <c r="J143">
         <v>211613</v>
       </c>
       <c r="K143" t="s">
@@ -14508,7 +15153,7 @@
       </c>
     </row>
     <row r="144" spans="1:18">
-      <c r="A144" t="n">
+      <c r="A144">
         <v>3467249</v>
       </c>
       <c r="B144" t="s">
@@ -14535,7 +15180,7 @@
       <c r="I144" t="s">
         <v>806</v>
       </c>
-      <c r="J144" t="n">
+      <c r="J144">
         <v>86110</v>
       </c>
       <c r="K144" t="s">
@@ -14564,7 +15209,7 @@
       </c>
     </row>
     <row r="145" spans="1:18">
-      <c r="A145" t="n">
+      <c r="A145">
         <v>4021089</v>
       </c>
       <c r="B145" t="s">
@@ -14591,7 +15236,7 @@
       <c r="I145" t="s">
         <v>813</v>
       </c>
-      <c r="J145" t="n">
+      <c r="J145">
         <v>6552</v>
       </c>
       <c r="K145" t="s">
@@ -14620,7 +15265,7 @@
       </c>
     </row>
     <row r="146" spans="1:18">
-      <c r="A146" t="n">
+      <c r="A146">
         <v>2314879</v>
       </c>
       <c r="B146" t="s">
@@ -14647,7 +15292,7 @@
       <c r="I146" t="s">
         <v>818</v>
       </c>
-      <c r="J146" t="n">
+      <c r="J146">
         <v>4184</v>
       </c>
       <c r="K146" t="s">
@@ -14676,7 +15321,7 @@
       </c>
     </row>
     <row r="147" spans="1:18">
-      <c r="A147" t="n">
+      <c r="A147">
         <v>4003337</v>
       </c>
       <c r="B147" t="s">
@@ -14703,7 +15348,7 @@
       <c r="I147" t="s">
         <v>821</v>
       </c>
-      <c r="J147" t="n">
+      <c r="J147">
         <v>15175</v>
       </c>
       <c r="K147" t="s">
@@ -14732,7 +15377,7 @@
       </c>
     </row>
     <row r="148" spans="1:18">
-      <c r="A148" t="n">
+      <c r="A148">
         <v>3282075</v>
       </c>
       <c r="B148" t="s">
@@ -14759,7 +15404,7 @@
       <c r="I148" t="s">
         <v>666</v>
       </c>
-      <c r="J148" t="n">
+      <c r="J148">
         <v>1575</v>
       </c>
       <c r="K148" t="s">
@@ -14788,7 +15433,7 @@
       </c>
     </row>
     <row r="149" spans="1:18">
-      <c r="A149" t="n">
+      <c r="A149">
         <v>3375566</v>
       </c>
       <c r="B149" t="s">
@@ -14815,7 +15460,7 @@
       <c r="I149" t="s">
         <v>830</v>
       </c>
-      <c r="J149" t="n">
+      <c r="J149">
         <v>15257</v>
       </c>
       <c r="K149" t="s">
@@ -14844,7 +15489,7 @@
       </c>
     </row>
     <row r="150" spans="1:18">
-      <c r="A150" t="n">
+      <c r="A150">
         <v>3988676</v>
       </c>
       <c r="B150" t="s">
@@ -14871,7 +15516,7 @@
       <c r="I150" t="s">
         <v>570</v>
       </c>
-      <c r="J150" t="n">
+      <c r="J150">
         <v>22013</v>
       </c>
       <c r="K150" t="s">
@@ -14900,7 +15545,7 @@
       </c>
     </row>
     <row r="151" spans="1:18">
-      <c r="A151" t="n">
+      <c r="A151">
         <v>3764368</v>
       </c>
       <c r="B151" t="s">
@@ -14927,7 +15572,7 @@
       <c r="I151" t="s">
         <v>713</v>
       </c>
-      <c r="J151" t="n">
+      <c r="J151">
         <v>142041</v>
       </c>
       <c r="K151" t="s">
@@ -14956,7 +15601,7 @@
       </c>
     </row>
     <row r="152" spans="1:18">
-      <c r="A152" t="n">
+      <c r="A152">
         <v>2568079</v>
       </c>
       <c r="B152" t="s">
@@ -14983,7 +15628,7 @@
       <c r="I152" t="s">
         <v>356</v>
       </c>
-      <c r="J152" t="n">
+      <c r="J152">
         <v>917</v>
       </c>
       <c r="K152" t="s">
@@ -15012,7 +15657,7 @@
       </c>
     </row>
     <row r="153" spans="1:18">
-      <c r="A153" t="n">
+      <c r="A153">
         <v>3831554</v>
       </c>
       <c r="B153" t="s">
@@ -15039,7 +15684,7 @@
       <c r="I153" t="s">
         <v>842</v>
       </c>
-      <c r="J153" t="n">
+      <c r="J153">
         <v>19281</v>
       </c>
       <c r="K153" t="s">
@@ -15068,7 +15713,7 @@
       </c>
     </row>
     <row r="154" spans="1:18">
-      <c r="A154" t="n">
+      <c r="A154">
         <v>3342270</v>
       </c>
       <c r="B154" t="s">
@@ -15095,7 +15740,7 @@
       <c r="I154" t="s">
         <v>849</v>
       </c>
-      <c r="J154" t="n">
+      <c r="J154">
         <v>211621</v>
       </c>
       <c r="K154" t="s">
@@ -15124,7 +15769,7 @@
       </c>
     </row>
     <row r="155" spans="1:18">
-      <c r="A155" t="n">
+      <c r="A155">
         <v>2679102</v>
       </c>
       <c r="B155" t="s">
@@ -15151,7 +15796,7 @@
       <c r="I155" t="s">
         <v>858</v>
       </c>
-      <c r="J155" t="n">
+      <c r="J155">
         <v>165</v>
       </c>
       <c r="K155" t="s">
@@ -15180,7 +15825,7 @@
       </c>
     </row>
     <row r="156" spans="1:18">
-      <c r="A156" t="n">
+      <c r="A156">
         <v>4061908</v>
       </c>
       <c r="B156" t="s">
@@ -15207,7 +15852,7 @@
       <c r="I156" t="s">
         <v>866</v>
       </c>
-      <c r="J156" t="n">
+      <c r="J156">
         <v>79761</v>
       </c>
       <c r="K156" t="s">
@@ -15236,7 +15881,7 @@
       </c>
     </row>
     <row r="157" spans="1:18">
-      <c r="A157" t="n">
+      <c r="A157">
         <v>3824148</v>
       </c>
       <c r="B157" t="s">
@@ -15263,7 +15908,7 @@
       <c r="I157" t="s">
         <v>871</v>
       </c>
-      <c r="J157" t="n">
+      <c r="J157">
         <v>329</v>
       </c>
       <c r="K157" t="s">
@@ -15292,7 +15937,7 @@
       </c>
     </row>
     <row r="158" spans="1:18">
-      <c r="A158" t="n">
+      <c r="A158">
         <v>2490130</v>
       </c>
       <c r="B158" t="s">
@@ -15319,7 +15964,7 @@
       <c r="I158" t="s">
         <v>51</v>
       </c>
-      <c r="J158" t="n">
+      <c r="J158">
         <v>451</v>
       </c>
       <c r="K158" t="s">
@@ -15348,7 +15993,7 @@
       </c>
     </row>
     <row r="159" spans="1:18">
-      <c r="A159" t="n">
+      <c r="A159">
         <v>3388865</v>
       </c>
       <c r="B159" t="s">
@@ -15375,7 +16020,7 @@
       <c r="I159" t="s">
         <v>882</v>
       </c>
-      <c r="J159" t="n">
+      <c r="J159">
         <v>55446</v>
       </c>
       <c r="K159" t="s">
@@ -15404,7 +16049,7 @@
       </c>
     </row>
     <row r="160" spans="1:18">
-      <c r="A160" t="n">
+      <c r="A160">
         <v>4028379</v>
       </c>
       <c r="B160" t="s">
@@ -15431,7 +16076,7 @@
       <c r="I160" t="s">
         <v>891</v>
       </c>
-      <c r="J160" t="n">
+      <c r="J160">
         <v>18453</v>
       </c>
       <c r="K160" t="s">
@@ -15460,7 +16105,7 @@
       </c>
     </row>
     <row r="161" spans="1:18">
-      <c r="A161" t="n">
+      <c r="A161">
         <v>4037732</v>
       </c>
       <c r="B161" t="s">
@@ -15487,7 +16132,7 @@
       <c r="I161" t="s">
         <v>896</v>
       </c>
-      <c r="J161" t="n">
+      <c r="J161">
         <v>107435</v>
       </c>
       <c r="K161" t="s">
@@ -15516,7 +16161,7 @@
       </c>
     </row>
     <row r="162" spans="1:18">
-      <c r="A162" t="n">
+      <c r="A162">
         <v>3332678</v>
       </c>
       <c r="B162" t="s">
@@ -15543,7 +16188,7 @@
       <c r="I162" t="s">
         <v>901</v>
       </c>
-      <c r="J162" t="n">
+      <c r="J162">
         <v>129</v>
       </c>
       <c r="K162" t="s">
@@ -15572,7 +16217,7 @@
       </c>
     </row>
     <row r="163" spans="1:18">
-      <c r="A163" t="n">
+      <c r="A163">
         <v>3727470</v>
       </c>
       <c r="B163" t="s">
@@ -15599,7 +16244,7 @@
       <c r="I163" t="s">
         <v>906</v>
       </c>
-      <c r="J163" t="n">
+      <c r="J163">
         <v>115706</v>
       </c>
       <c r="K163" t="s">
@@ -15628,7 +16273,7 @@
       </c>
     </row>
     <row r="164" spans="1:18">
-      <c r="A164" t="n">
+      <c r="A164">
         <v>3584358</v>
       </c>
       <c r="B164" t="s">
@@ -15655,7 +16300,7 @@
       <c r="I164" t="s">
         <v>914</v>
       </c>
-      <c r="J164" t="n">
+      <c r="J164">
         <v>6364</v>
       </c>
       <c r="K164" t="s">
@@ -15684,7 +16329,7 @@
       </c>
     </row>
     <row r="165" spans="1:18">
-      <c r="A165" t="n">
+      <c r="A165">
         <v>3703755</v>
       </c>
       <c r="B165" t="s">
@@ -15711,7 +16356,7 @@
       <c r="I165" t="s">
         <v>921</v>
       </c>
-      <c r="J165" t="n">
+      <c r="J165">
         <v>520</v>
       </c>
       <c r="K165" t="s">
@@ -15740,7 +16385,7 @@
       </c>
     </row>
     <row r="166" spans="1:18">
-      <c r="A166" t="n">
+      <c r="A166">
         <v>3080663</v>
       </c>
       <c r="B166" t="s">
@@ -15767,7 +16412,7 @@
       <c r="I166" t="s">
         <v>927</v>
       </c>
-      <c r="J166" t="n">
+      <c r="J166">
         <v>170297</v>
       </c>
       <c r="K166" t="s">
@@ -15796,7 +16441,7 @@
       </c>
     </row>
     <row r="167" spans="1:18">
-      <c r="A167" t="n">
+      <c r="A167">
         <v>3892353</v>
       </c>
       <c r="B167" t="s">
@@ -15823,7 +16468,7 @@
       <c r="I167" t="s">
         <v>933</v>
       </c>
-      <c r="J167" t="n">
+      <c r="J167">
         <v>114173</v>
       </c>
       <c r="K167" t="s">
@@ -15852,7 +16497,7 @@
       </c>
     </row>
     <row r="168" spans="1:18">
-      <c r="A168" t="n">
+      <c r="A168">
         <v>2327411</v>
       </c>
       <c r="B168" t="s">
@@ -15879,7 +16524,7 @@
       <c r="I168" t="s">
         <v>476</v>
       </c>
-      <c r="J168" t="n">
+      <c r="J168">
         <v>139755</v>
       </c>
       <c r="K168" t="s">
@@ -15908,7 +16553,7 @@
       </c>
     </row>
     <row r="169" spans="1:18">
-      <c r="A169" t="n">
+      <c r="A169">
         <v>2770809</v>
       </c>
       <c r="B169" t="s">
@@ -15935,7 +16580,7 @@
       <c r="I169" t="s">
         <v>914</v>
       </c>
-      <c r="J169" t="n">
+      <c r="J169">
         <v>6364</v>
       </c>
       <c r="K169" t="s">
@@ -15964,7 +16609,7 @@
       </c>
     </row>
     <row r="170" spans="1:18">
-      <c r="A170" t="n">
+      <c r="A170">
         <v>4059469</v>
       </c>
       <c r="B170" t="s">
@@ -15991,7 +16636,7 @@
       <c r="I170" t="s">
         <v>684</v>
       </c>
-      <c r="J170" t="n">
+      <c r="J170">
         <v>21225</v>
       </c>
       <c r="K170" t="s">
@@ -16020,7 +16665,7 @@
       </c>
     </row>
     <row r="171" spans="1:18">
-      <c r="A171" t="n">
+      <c r="A171">
         <v>4020407</v>
       </c>
       <c r="B171" t="s">
@@ -16047,7 +16692,7 @@
       <c r="I171" t="s">
         <v>161</v>
       </c>
-      <c r="J171" t="n">
+      <c r="J171">
         <v>7835</v>
       </c>
       <c r="K171" t="s">
@@ -16076,7 +16721,7 @@
       </c>
     </row>
     <row r="172" spans="1:18">
-      <c r="A172" t="n">
+      <c r="A172">
         <v>3069359</v>
       </c>
       <c r="B172" t="s">
@@ -16103,7 +16748,7 @@
       <c r="I172" t="s">
         <v>951</v>
       </c>
-      <c r="J172" t="n">
+      <c r="J172">
         <v>153849</v>
       </c>
       <c r="K172" t="s">
@@ -16132,7 +16777,7 @@
       </c>
     </row>
     <row r="173" spans="1:18">
-      <c r="A173" t="n">
+      <c r="A173">
         <v>3734750</v>
       </c>
       <c r="B173" t="s">
@@ -16159,7 +16804,7 @@
       <c r="I173" t="s">
         <v>956</v>
       </c>
-      <c r="J173" t="n">
+      <c r="J173">
         <v>23291</v>
       </c>
       <c r="K173" t="s">
@@ -16188,7 +16833,7 @@
       </c>
     </row>
     <row r="174" spans="1:18">
-      <c r="A174" t="n">
+      <c r="A174">
         <v>4024354</v>
       </c>
       <c r="B174" t="s">
@@ -16215,7 +16860,7 @@
       <c r="I174" t="s">
         <v>921</v>
       </c>
-      <c r="J174" t="n">
+      <c r="J174">
         <v>520</v>
       </c>
       <c r="K174" t="s">
@@ -16244,7 +16889,7 @@
       </c>
     </row>
     <row r="175" spans="1:18">
-      <c r="A175" t="n">
+      <c r="A175">
         <v>2214377</v>
       </c>
       <c r="B175" t="s">
@@ -16271,7 +16916,7 @@
       <c r="I175" t="s">
         <v>146</v>
       </c>
-      <c r="J175" t="n">
+      <c r="J175">
         <v>50702</v>
       </c>
       <c r="K175" t="s">
@@ -16300,7 +16945,7 @@
       </c>
     </row>
     <row r="176" spans="1:18">
-      <c r="A176" t="n">
+      <c r="A176">
         <v>2504664</v>
       </c>
       <c r="B176" t="s">
@@ -16327,7 +16972,7 @@
       <c r="I176" t="s">
         <v>276</v>
       </c>
-      <c r="J176" t="n">
+      <c r="J176">
         <v>28393</v>
       </c>
       <c r="K176" t="s">
@@ -16356,7 +17001,7 @@
       </c>
     </row>
     <row r="177" spans="1:18">
-      <c r="A177" t="n">
+      <c r="A177">
         <v>4037560</v>
       </c>
       <c r="B177" t="s">
@@ -16383,7 +17028,7 @@
       <c r="I177" t="s">
         <v>966</v>
       </c>
-      <c r="J177" t="n">
+      <c r="J177">
         <v>32179</v>
       </c>
       <c r="K177" t="s">
@@ -16412,7 +17057,7 @@
       </c>
     </row>
     <row r="178" spans="1:18">
-      <c r="A178" t="n">
+      <c r="A178">
         <v>2761762</v>
       </c>
       <c r="B178" t="s">
@@ -16439,7 +17084,7 @@
       <c r="I178" t="s">
         <v>973</v>
       </c>
-      <c r="J178" t="n">
+      <c r="J178">
         <v>13809</v>
       </c>
       <c r="K178" t="s">
@@ -16468,7 +17113,7 @@
       </c>
     </row>
     <row r="179" spans="1:18">
-      <c r="A179" t="n">
+      <c r="A179">
         <v>1803303</v>
       </c>
       <c r="B179" t="s">
@@ -16495,7 +17140,7 @@
       <c r="I179" t="s">
         <v>978</v>
       </c>
-      <c r="J179" t="n">
+      <c r="J179">
         <v>4428</v>
       </c>
       <c r="K179" t="s">
@@ -16524,7 +17169,7 @@
       </c>
     </row>
     <row r="180" spans="1:18">
-      <c r="A180" t="n">
+      <c r="A180">
         <v>3581917</v>
       </c>
       <c r="B180" t="s">
@@ -16551,7 +17196,7 @@
       <c r="I180" t="s">
         <v>985</v>
       </c>
-      <c r="J180" t="n">
+      <c r="J180">
         <v>3450</v>
       </c>
       <c r="K180" t="s">
@@ -16580,7 +17225,7 @@
       </c>
     </row>
     <row r="181" spans="1:18">
-      <c r="A181" t="n">
+      <c r="A181">
         <v>2669822</v>
       </c>
       <c r="B181" t="s">
@@ -16607,7 +17252,7 @@
       <c r="I181" t="s">
         <v>991</v>
       </c>
-      <c r="J181" t="n">
+      <c r="J181">
         <v>84086</v>
       </c>
       <c r="K181" t="s">
@@ -16636,7 +17281,7 @@
       </c>
     </row>
     <row r="182" spans="1:18">
-      <c r="A182" t="n">
+      <c r="A182">
         <v>3989756</v>
       </c>
       <c r="B182" t="s">
@@ -16663,7 +17308,7 @@
       <c r="I182" t="s">
         <v>684</v>
       </c>
-      <c r="J182" t="n">
+      <c r="J182">
         <v>21225</v>
       </c>
       <c r="K182" t="s">
@@ -16692,7 +17337,7 @@
       </c>
     </row>
     <row r="183" spans="1:18">
-      <c r="A183" t="n">
+      <c r="A183">
         <v>4022240</v>
       </c>
       <c r="B183" t="s">
@@ -16719,7 +17364,7 @@
       <c r="I183" t="s">
         <v>956</v>
       </c>
-      <c r="J183" t="n">
+      <c r="J183">
         <v>23291</v>
       </c>
       <c r="K183" t="s">
@@ -16748,7 +17393,7 @@
       </c>
     </row>
     <row r="184" spans="1:18">
-      <c r="A184" t="n">
+      <c r="A184">
         <v>3702670</v>
       </c>
       <c r="B184" t="s">
@@ -16775,7 +17420,7 @@
       <c r="I184" t="s">
         <v>476</v>
       </c>
-      <c r="J184" t="n">
+      <c r="J184">
         <v>139755</v>
       </c>
       <c r="K184" t="s">
@@ -16804,7 +17449,7 @@
       </c>
     </row>
     <row r="185" spans="1:18">
-      <c r="A185" t="n">
+      <c r="A185">
         <v>3680992</v>
       </c>
       <c r="B185" t="s">
@@ -16831,7 +17476,7 @@
       <c r="I185" t="s">
         <v>161</v>
       </c>
-      <c r="J185" t="n">
+      <c r="J185">
         <v>7835</v>
       </c>
       <c r="K185" t="s">
@@ -16860,7 +17505,7 @@
       </c>
     </row>
     <row r="186" spans="1:18">
-      <c r="A186" t="n">
+      <c r="A186">
         <v>2268858</v>
       </c>
       <c r="B186" t="s">
@@ -16887,7 +17532,7 @@
       <c r="I186" t="s">
         <v>1004</v>
       </c>
-      <c r="J186" t="n">
+      <c r="J186">
         <v>139350</v>
       </c>
       <c r="K186" t="s">
@@ -16916,7 +17561,7 @@
       </c>
     </row>
     <row r="187" spans="1:18">
-      <c r="A187" t="n">
+      <c r="A187">
         <v>2759885</v>
       </c>
       <c r="B187" t="s">
@@ -16943,7 +17588,7 @@
       <c r="I187" t="s">
         <v>1012</v>
       </c>
-      <c r="J187" t="n">
+      <c r="J187">
         <v>116333</v>
       </c>
       <c r="K187" t="s">
@@ -16972,7 +17617,7 @@
       </c>
     </row>
     <row r="188" spans="1:18">
-      <c r="A188" t="n">
+      <c r="A188">
         <v>2902948</v>
       </c>
       <c r="B188" t="s">
@@ -16999,7 +17644,7 @@
       <c r="I188" t="s">
         <v>1019</v>
       </c>
-      <c r="J188" t="n">
+      <c r="J188">
         <v>180060</v>
       </c>
       <c r="K188" t="s">
@@ -17028,7 +17673,7 @@
       </c>
     </row>
     <row r="189" spans="1:18">
-      <c r="A189" t="n">
+      <c r="A189">
         <v>3771904</v>
       </c>
       <c r="B189" t="s">
@@ -17055,7 +17700,7 @@
       <c r="I189" t="s">
         <v>1027</v>
       </c>
-      <c r="J189" t="n">
+      <c r="J189">
         <v>164574</v>
       </c>
       <c r="K189" t="s">
@@ -17084,7 +17729,7 @@
       </c>
     </row>
     <row r="190" spans="1:18">
-      <c r="A190" t="n">
+      <c r="A190">
         <v>3339238</v>
       </c>
       <c r="B190" t="s">
@@ -17111,7 +17756,7 @@
       <c r="I190" t="s">
         <v>951</v>
       </c>
-      <c r="J190" t="n">
+      <c r="J190">
         <v>153849</v>
       </c>
       <c r="K190" t="s">
@@ -17140,7 +17785,7 @@
       </c>
     </row>
     <row r="191" spans="1:18">
-      <c r="A191" t="n">
+      <c r="A191">
         <v>2851117</v>
       </c>
       <c r="B191" t="s">
@@ -17167,7 +17812,7 @@
       <c r="I191" t="s">
         <v>1037</v>
       </c>
-      <c r="J191" t="n">
+      <c r="J191">
         <v>24748</v>
       </c>
       <c r="K191" t="s">
@@ -17196,7 +17841,7 @@
       </c>
     </row>
     <row r="192" spans="1:18">
-      <c r="A192" t="n">
+      <c r="A192">
         <v>3271094</v>
       </c>
       <c r="B192" t="s">
@@ -17223,7 +17868,7 @@
       <c r="I192" t="s">
         <v>1043</v>
       </c>
-      <c r="J192" t="n">
+      <c r="J192">
         <v>160479</v>
       </c>
       <c r="K192" t="s">
@@ -17252,7 +17897,7 @@
       </c>
     </row>
     <row r="193" spans="1:18">
-      <c r="A193" t="n">
+      <c r="A193">
         <v>4002047</v>
       </c>
       <c r="B193" t="s">
@@ -17279,7 +17924,7 @@
       <c r="I193" t="s">
         <v>1049</v>
       </c>
-      <c r="J193" t="n">
+      <c r="J193">
         <v>120733</v>
       </c>
       <c r="K193" t="s">
@@ -17308,7 +17953,7 @@
       </c>
     </row>
     <row r="194" spans="1:18">
-      <c r="A194" t="n">
+      <c r="A194">
         <v>3985588</v>
       </c>
       <c r="B194" t="s">
@@ -17335,7 +17980,7 @@
       <c r="I194" t="s">
         <v>1056</v>
       </c>
-      <c r="J194" t="n">
+      <c r="J194">
         <v>210070</v>
       </c>
       <c r="K194" t="s">
@@ -17364,7 +18009,7 @@
       </c>
     </row>
     <row r="195" spans="1:18">
-      <c r="A195" t="n">
+      <c r="A195">
         <v>3581989</v>
       </c>
       <c r="B195" t="s">
@@ -17391,7 +18036,7 @@
       <c r="I195" t="s">
         <v>985</v>
       </c>
-      <c r="J195" t="n">
+      <c r="J195">
         <v>3450</v>
       </c>
       <c r="K195" t="s">
@@ -17420,7 +18065,7 @@
       </c>
     </row>
     <row r="196" spans="1:18">
-      <c r="A196" t="n">
+      <c r="A196">
         <v>4050265</v>
       </c>
       <c r="B196" t="s">
@@ -17447,7 +18092,7 @@
       <c r="I196" t="s">
         <v>1065</v>
       </c>
-      <c r="J196" t="n">
+      <c r="J196">
         <v>135243</v>
       </c>
       <c r="K196" t="s">
@@ -17476,7 +18121,7 @@
       </c>
     </row>
     <row r="197" spans="1:18">
-      <c r="A197" t="n">
+      <c r="A197">
         <v>3317990</v>
       </c>
       <c r="B197" t="s">
@@ -17503,7 +18148,7 @@
       <c r="I197" t="s">
         <v>951</v>
       </c>
-      <c r="J197" t="n">
+      <c r="J197">
         <v>153849</v>
       </c>
       <c r="K197" t="s">
@@ -17532,7 +18177,7 @@
       </c>
     </row>
     <row r="198" spans="1:18">
-      <c r="A198" t="n">
+      <c r="A198">
         <v>3950924</v>
       </c>
       <c r="B198" t="s">
@@ -17559,7 +18204,7 @@
       <c r="I198" t="s">
         <v>1074</v>
       </c>
-      <c r="J198" t="n">
+      <c r="J198">
         <v>172285</v>
       </c>
       <c r="K198" t="s">
@@ -17588,7 +18233,7 @@
       </c>
     </row>
     <row r="199" spans="1:18">
-      <c r="A199" t="n">
+      <c r="A199">
         <v>2603441</v>
       </c>
       <c r="B199" t="s">
@@ -17615,7 +18260,7 @@
       <c r="I199" t="s">
         <v>1080</v>
       </c>
-      <c r="J199" t="n">
+      <c r="J199">
         <v>3038</v>
       </c>
       <c r="K199" t="s">
@@ -17644,7 +18289,7 @@
       </c>
     </row>
     <row r="200" spans="1:18">
-      <c r="A200" t="n">
+      <c r="A200">
         <v>1002274</v>
       </c>
       <c r="B200" t="s">
@@ -17671,7 +18316,7 @@
       <c r="I200" t="s">
         <v>1085</v>
       </c>
-      <c r="J200" t="n">
+      <c r="J200">
         <v>21218</v>
       </c>
       <c r="K200" t="s">
@@ -17700,7 +18345,7 @@
       </c>
     </row>
     <row r="201" spans="1:18">
-      <c r="A201" t="n">
+      <c r="A201">
         <v>3935561</v>
       </c>
       <c r="B201" t="s">
@@ -17727,7 +18372,7 @@
       <c r="I201" t="s">
         <v>697</v>
       </c>
-      <c r="J201" t="n">
+      <c r="J201">
         <v>8523</v>
       </c>
       <c r="K201" t="s">
@@ -17756,7 +18401,7 @@
       </c>
     </row>
     <row r="202" spans="1:18">
-      <c r="A202" t="n">
+      <c r="A202">
         <v>3274779</v>
       </c>
       <c r="B202" t="s">
@@ -17783,7 +18428,7 @@
       <c r="I202" t="s">
         <v>1092</v>
       </c>
-      <c r="J202" t="n">
+      <c r="J202">
         <v>219252</v>
       </c>
       <c r="K202" t="s">
@@ -17812,7 +18457,7 @@
       </c>
     </row>
     <row r="203" spans="1:18">
-      <c r="A203" t="n">
+      <c r="A203">
         <v>3196844</v>
       </c>
       <c r="B203" t="s">
@@ -17839,7 +18484,7 @@
       <c r="I203" t="s">
         <v>1100</v>
       </c>
-      <c r="J203" t="n">
+      <c r="J203">
         <v>106303</v>
       </c>
       <c r="K203" t="s">
@@ -17868,7 +18513,7 @@
       </c>
     </row>
     <row r="204" spans="1:18">
-      <c r="A204" t="n">
+      <c r="A204">
         <v>3986035</v>
       </c>
       <c r="B204" t="s">
@@ -17895,7 +18540,7 @@
       <c r="I204" t="s">
         <v>1105</v>
       </c>
-      <c r="J204" t="n">
+      <c r="J204">
         <v>18797</v>
       </c>
       <c r="K204" t="s">
@@ -17924,7 +18569,7 @@
       </c>
     </row>
     <row r="205" spans="1:18">
-      <c r="A205" t="n">
+      <c r="A205">
         <v>3983552</v>
       </c>
       <c r="B205" t="s">
@@ -17951,7 +18596,7 @@
       <c r="I205" t="s">
         <v>1112</v>
       </c>
-      <c r="J205" t="n">
+      <c r="J205">
         <v>40729</v>
       </c>
       <c r="K205" t="s">
@@ -17980,7 +18625,7 @@
       </c>
     </row>
     <row r="206" spans="1:18">
-      <c r="A206" t="n">
+      <c r="A206">
         <v>3616134</v>
       </c>
       <c r="B206" t="s">
@@ -18007,7 +18652,7 @@
       <c r="I206" t="s">
         <v>1116</v>
       </c>
-      <c r="J206" t="n">
+      <c r="J206">
         <v>39772</v>
       </c>
       <c r="K206" t="s">
@@ -18036,7 +18681,7 @@
       </c>
     </row>
     <row r="207" spans="1:18">
-      <c r="A207" t="n">
+      <c r="A207">
         <v>3939924</v>
       </c>
       <c r="B207" t="s">
@@ -18063,7 +18708,7 @@
       <c r="I207" t="s">
         <v>1120</v>
       </c>
-      <c r="J207" t="n">
+      <c r="J207">
         <v>40459</v>
       </c>
       <c r="K207" t="s">
@@ -18092,7 +18737,7 @@
       </c>
     </row>
     <row r="208" spans="1:18">
-      <c r="A208" t="n">
+      <c r="A208">
         <v>4042482</v>
       </c>
       <c r="B208" t="s">
@@ -18119,7 +18764,7 @@
       <c r="I208" t="s">
         <v>1126</v>
       </c>
-      <c r="J208" t="n">
+      <c r="J208">
         <v>11739</v>
       </c>
       <c r="K208" t="s">
@@ -18148,7 +18793,7 @@
       </c>
     </row>
     <row r="209" spans="1:18">
-      <c r="A209" t="n">
+      <c r="A209">
         <v>3515773</v>
       </c>
       <c r="B209" t="s">
@@ -18175,7 +18820,7 @@
       <c r="I209" t="s">
         <v>1128</v>
       </c>
-      <c r="J209" t="n">
+      <c r="J209">
         <v>62</v>
       </c>
       <c r="K209" t="s">
@@ -18204,7 +18849,7 @@
       </c>
     </row>
     <row r="210" spans="1:18">
-      <c r="A210" t="n">
+      <c r="A210">
         <v>1890132</v>
       </c>
       <c r="B210" t="s">
@@ -18231,7 +18876,7 @@
       <c r="I210" t="s">
         <v>1132</v>
       </c>
-      <c r="J210" t="n">
+      <c r="J210">
         <v>24102</v>
       </c>
       <c r="K210" t="s">
@@ -18260,7 +18905,7 @@
       </c>
     </row>
     <row r="211" spans="1:18">
-      <c r="A211" t="n">
+      <c r="A211">
         <v>4037676</v>
       </c>
       <c r="B211" t="s">
@@ -18287,7 +18932,7 @@
       <c r="I211" t="s">
         <v>966</v>
       </c>
-      <c r="J211" t="n">
+      <c r="J211">
         <v>32179</v>
       </c>
       <c r="K211" t="s">
@@ -18316,7 +18961,7 @@
       </c>
     </row>
     <row r="212" spans="1:18">
-      <c r="A212" t="n">
+      <c r="A212">
         <v>3342986</v>
       </c>
       <c r="B212" t="s">
@@ -18343,7 +18988,7 @@
       <c r="I212" t="s">
         <v>951</v>
       </c>
-      <c r="J212" t="n">
+      <c r="J212">
         <v>153849</v>
       </c>
       <c r="K212" t="s">
@@ -18372,7 +19017,7 @@
       </c>
     </row>
     <row r="213" spans="1:18">
-      <c r="A213" t="n">
+      <c r="A213">
         <v>3351924</v>
       </c>
       <c r="B213" t="s">
@@ -18399,7 +19044,7 @@
       <c r="I213" t="s">
         <v>283</v>
       </c>
-      <c r="J213" t="n">
+      <c r="J213">
         <v>6868</v>
       </c>
       <c r="K213" t="s">
@@ -18428,7 +19073,7 @@
       </c>
     </row>
     <row r="214" spans="1:18">
-      <c r="A214" t="n">
+      <c r="A214">
         <v>3234350</v>
       </c>
       <c r="B214" t="s">
@@ -18455,7 +19100,7 @@
       <c r="I214" t="s">
         <v>1043</v>
       </c>
-      <c r="J214" t="n">
+      <c r="J214">
         <v>160479</v>
       </c>
       <c r="K214" t="s">
@@ -18484,7 +19129,7 @@
       </c>
     </row>
     <row r="215" spans="1:18">
-      <c r="A215" t="n">
+      <c r="A215">
         <v>3977481</v>
       </c>
       <c r="B215" t="s">
@@ -18511,7 +19156,7 @@
       <c r="I215" t="s">
         <v>713</v>
       </c>
-      <c r="J215" t="n">
+      <c r="J215">
         <v>142041</v>
       </c>
       <c r="K215" t="s">
@@ -18540,7 +19185,7 @@
       </c>
     </row>
     <row r="216" spans="1:18">
-      <c r="A216" t="n">
+      <c r="A216">
         <v>3449628</v>
       </c>
       <c r="B216" t="s">
@@ -18567,7 +19212,7 @@
       <c r="I216" t="s">
         <v>921</v>
       </c>
-      <c r="J216" t="n">
+      <c r="J216">
         <v>520</v>
       </c>
       <c r="K216" t="s">
@@ -18596,7 +19241,7 @@
       </c>
     </row>
     <row r="217" spans="1:18">
-      <c r="A217" t="n">
+      <c r="A217">
         <v>4044959</v>
       </c>
       <c r="B217" t="s">
@@ -18623,7 +19268,7 @@
       <c r="I217" t="s">
         <v>901</v>
       </c>
-      <c r="J217" t="n">
+      <c r="J217">
         <v>129</v>
       </c>
       <c r="K217" t="s">
@@ -18652,7 +19297,7 @@
       </c>
     </row>
     <row r="218" spans="1:18">
-      <c r="A218" t="n">
+      <c r="A218">
         <v>4042084</v>
       </c>
       <c r="B218" t="s">
@@ -18679,7 +19324,7 @@
       <c r="I218" t="s">
         <v>1152</v>
       </c>
-      <c r="J218" t="n">
+      <c r="J218">
         <v>8861</v>
       </c>
       <c r="K218" t="s">
@@ -18708,7 +19353,7 @@
       </c>
     </row>
     <row r="219" spans="1:18">
-      <c r="A219" t="n">
+      <c r="A219">
         <v>3604462</v>
       </c>
       <c r="B219" t="s">
@@ -18735,7 +19380,7 @@
       <c r="I219" t="s">
         <v>615</v>
       </c>
-      <c r="J219" t="n">
+      <c r="J219">
         <v>4188</v>
       </c>
       <c r="K219" t="s">
@@ -18764,7 +19409,7 @@
       </c>
     </row>
     <row r="220" spans="1:18">
-      <c r="A220" t="n">
+      <c r="A220">
         <v>3740120</v>
       </c>
       <c r="B220" t="s">
@@ -18791,7 +19436,7 @@
       <c r="I220" t="s">
         <v>210</v>
       </c>
-      <c r="J220" t="n">
+      <c r="J220">
         <v>21567</v>
       </c>
       <c r="K220" t="s">
@@ -18820,7 +19465,7 @@
       </c>
     </row>
     <row r="221" spans="1:18">
-      <c r="A221" t="n">
+      <c r="A221">
         <v>4009247</v>
       </c>
       <c r="B221" t="s">
@@ -18847,7 +19492,7 @@
       <c r="I221" t="s">
         <v>966</v>
       </c>
-      <c r="J221" t="n">
+      <c r="J221">
         <v>87029</v>
       </c>
       <c r="K221" t="s">
@@ -18876,7 +19521,7 @@
       </c>
     </row>
     <row r="222" spans="1:18">
-      <c r="A222" t="n">
+      <c r="A222">
         <v>3918544</v>
       </c>
       <c r="B222" t="s">
@@ -18903,7 +19548,7 @@
       <c r="I222" t="s">
         <v>956</v>
       </c>
-      <c r="J222" t="n">
+      <c r="J222">
         <v>23291</v>
       </c>
       <c r="K222" t="s">
@@ -18932,7 +19577,7 @@
       </c>
     </row>
     <row r="223" spans="1:18">
-      <c r="A223" t="n">
+      <c r="A223">
         <v>3981944</v>
       </c>
       <c r="B223" t="s">
@@ -18959,7 +19604,7 @@
       <c r="I223" t="s">
         <v>161</v>
       </c>
-      <c r="J223" t="n">
+      <c r="J223">
         <v>7835</v>
       </c>
       <c r="K223" t="s">
@@ -18988,7 +19633,7 @@
       </c>
     </row>
     <row r="224" spans="1:18">
-      <c r="A224" t="n">
+      <c r="A224">
         <v>4023247</v>
       </c>
       <c r="B224" t="s">
@@ -19015,7 +19660,7 @@
       <c r="I224" t="s">
         <v>122</v>
       </c>
-      <c r="J224" t="n">
+      <c r="J224">
         <v>2474</v>
       </c>
       <c r="K224" t="s">
@@ -19044,7 +19689,7 @@
       </c>
     </row>
     <row r="225" spans="1:18">
-      <c r="A225" t="n">
+      <c r="A225">
         <v>3891034</v>
       </c>
       <c r="B225" t="s">
@@ -19071,7 +19716,7 @@
       <c r="I225" t="s">
         <v>476</v>
       </c>
-      <c r="J225" t="n">
+      <c r="J225">
         <v>139755</v>
       </c>
       <c r="K225" t="s">
@@ -19100,7 +19745,7 @@
       </c>
     </row>
     <row r="226" spans="1:18">
-      <c r="A226" t="n">
+      <c r="A226">
         <v>4052718</v>
       </c>
       <c r="B226" t="s">
@@ -19127,7 +19772,7 @@
       <c r="I226" t="s">
         <v>57</v>
       </c>
-      <c r="J226" t="n">
+      <c r="J226">
         <v>238933</v>
       </c>
       <c r="K226" t="s">
@@ -19156,7 +19801,7 @@
       </c>
     </row>
     <row r="227" spans="1:18">
-      <c r="A227" t="n">
+      <c r="A227">
         <v>3992648</v>
       </c>
       <c r="B227" t="s">
@@ -19183,7 +19828,7 @@
       <c r="I227" t="s">
         <v>966</v>
       </c>
-      <c r="J227" t="n">
+      <c r="J227">
         <v>87029</v>
       </c>
       <c r="K227" t="s">
@@ -19212,7 +19857,7 @@
       </c>
     </row>
     <row r="228" spans="1:18">
-      <c r="A228" t="n">
+      <c r="A228">
         <v>3714268</v>
       </c>
       <c r="B228" t="s">
@@ -19239,7 +19884,7 @@
       <c r="I228" t="s">
         <v>921</v>
       </c>
-      <c r="J228" t="n">
+      <c r="J228">
         <v>520</v>
       </c>
       <c r="K228" t="s">
@@ -19268,7 +19913,7 @@
       </c>
     </row>
     <row r="229" spans="1:18">
-      <c r="A229" t="n">
+      <c r="A229">
         <v>3520897</v>
       </c>
       <c r="B229" t="s">
@@ -19295,7 +19940,7 @@
       <c r="I229" t="s">
         <v>951</v>
       </c>
-      <c r="J229" t="n">
+      <c r="J229">
         <v>153849</v>
       </c>
       <c r="K229" t="s">
@@ -19324,7 +19969,7 @@
       </c>
     </row>
     <row r="230" spans="1:18">
-      <c r="A230" t="n">
+      <c r="A230">
         <v>4026095</v>
       </c>
       <c r="B230" t="s">
@@ -19351,7 +19996,7 @@
       <c r="I230" t="s">
         <v>465</v>
       </c>
-      <c r="J230" t="n">
+      <c r="J230">
         <v>3328</v>
       </c>
       <c r="K230" t="s">
@@ -19380,7 +20025,7 @@
       </c>
     </row>
     <row r="231" spans="1:18">
-      <c r="A231" t="n">
+      <c r="A231">
         <v>4050230</v>
       </c>
       <c r="B231" t="s">
@@ -19407,7 +20052,7 @@
       <c r="I231" t="s">
         <v>1065</v>
       </c>
-      <c r="J231" t="n">
+      <c r="J231">
         <v>135243</v>
       </c>
       <c r="K231" t="s">
@@ -19436,7 +20081,7 @@
       </c>
     </row>
     <row r="232" spans="1:18">
-      <c r="A232" t="n">
+      <c r="A232">
         <v>3970890</v>
       </c>
       <c r="B232" t="s">
@@ -19463,7 +20108,7 @@
       <c r="I232" t="s">
         <v>666</v>
       </c>
-      <c r="J232" t="n">
+      <c r="J232">
         <v>1575</v>
       </c>
       <c r="K232" t="s">
@@ -19492,7 +20137,7 @@
       </c>
     </row>
     <row r="233" spans="1:18">
-      <c r="A233" t="n">
+      <c r="A233">
         <v>2638612</v>
       </c>
       <c r="B233" t="s">
@@ -19519,7 +20164,7 @@
       <c r="I233" t="s">
         <v>1199</v>
       </c>
-      <c r="J233" t="n">
+      <c r="J233">
         <v>83866</v>
       </c>
       <c r="K233" t="s">
@@ -19540,9 +20185,15 @@
       <c r="P233" t="s">
         <v>109</v>
       </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234" spans="1:18">
-      <c r="A234" t="n">
+      <c r="A234">
         <v>4043884</v>
       </c>
       <c r="B234" t="s">
@@ -19569,7 +20220,7 @@
       <c r="I234" t="s">
         <v>1203</v>
       </c>
-      <c r="J234" t="n">
+      <c r="J234">
         <v>3786</v>
       </c>
       <c r="K234" t="s">
@@ -19598,7 +20249,7 @@
       </c>
     </row>
     <row r="235" spans="1:18">
-      <c r="A235" t="n">
+      <c r="A235">
         <v>3014225</v>
       </c>
       <c r="B235" t="s">
@@ -19625,7 +20276,7 @@
       <c r="I235" t="s">
         <v>818</v>
       </c>
-      <c r="J235" t="n">
+      <c r="J235">
         <v>4184</v>
       </c>
       <c r="K235" t="s">
@@ -19654,7 +20305,7 @@
       </c>
     </row>
     <row r="236" spans="1:18">
-      <c r="A236" t="n">
+      <c r="A236">
         <v>1041707</v>
       </c>
       <c r="B236" t="s">
@@ -19681,7 +20332,7 @@
       <c r="I236" t="s">
         <v>1210</v>
       </c>
-      <c r="J236" t="n">
+      <c r="J236">
         <v>16417</v>
       </c>
       <c r="K236" t="s">
@@ -19710,7 +20361,7 @@
       </c>
     </row>
     <row r="237" spans="1:18">
-      <c r="A237" t="n">
+      <c r="A237">
         <v>3066320</v>
       </c>
       <c r="B237" t="s">
@@ -19737,7 +20388,7 @@
       <c r="I237" t="s">
         <v>146</v>
       </c>
-      <c r="J237" t="n">
+      <c r="J237">
         <v>50702</v>
       </c>
       <c r="K237" t="s">
@@ -19766,7 +20417,7 @@
       </c>
     </row>
     <row r="238" spans="1:18">
-      <c r="A238" t="n">
+      <c r="A238">
         <v>3865190</v>
       </c>
       <c r="B238" t="s">
@@ -19793,7 +20444,7 @@
       <c r="I238" t="s">
         <v>1221</v>
       </c>
-      <c r="J238" t="n">
+      <c r="J238">
         <v>110890</v>
       </c>
       <c r="K238" t="s">
@@ -19822,7 +20473,7 @@
       </c>
     </row>
     <row r="239" spans="1:18">
-      <c r="A239" t="n">
+      <c r="A239">
         <v>2670074</v>
       </c>
       <c r="B239" t="s">
@@ -19849,7 +20500,7 @@
       <c r="I239" t="s">
         <v>583</v>
       </c>
-      <c r="J239" t="n">
+      <c r="J239">
         <v>1930</v>
       </c>
       <c r="K239" t="s">
@@ -19878,7 +20529,7 @@
       </c>
     </row>
     <row r="240" spans="1:18">
-      <c r="A240" t="n">
+      <c r="A240">
         <v>2009496</v>
       </c>
       <c r="B240" t="s">
@@ -19905,7 +20556,7 @@
       <c r="I240" t="s">
         <v>719</v>
       </c>
-      <c r="J240" t="n">
+      <c r="J240">
         <v>3564</v>
       </c>
       <c r="K240" t="s">
@@ -19934,7 +20585,7 @@
       </c>
     </row>
     <row r="241" spans="1:18">
-      <c r="A241" t="n">
+      <c r="A241">
         <v>3773740</v>
       </c>
       <c r="B241" t="s">
@@ -19961,7 +20612,7 @@
       <c r="I241" t="s">
         <v>713</v>
       </c>
-      <c r="J241" t="n">
+      <c r="J241">
         <v>142041</v>
       </c>
       <c r="K241" t="s">
@@ -19990,7 +20641,7 @@
       </c>
     </row>
     <row r="242" spans="1:18">
-      <c r="A242" t="n">
+      <c r="A242">
         <v>4056152</v>
       </c>
       <c r="B242" t="s">
@@ -20017,7 +20668,7 @@
       <c r="I242" t="s">
         <v>146</v>
       </c>
-      <c r="J242" t="n">
+      <c r="J242">
         <v>50702</v>
       </c>
       <c r="K242" t="s">
@@ -20046,7 +20697,7 @@
       </c>
     </row>
     <row r="243" spans="1:18">
-      <c r="A243" t="n">
+      <c r="A243">
         <v>2836397</v>
       </c>
       <c r="B243" t="s">
@@ -20073,7 +20724,7 @@
       <c r="I243" t="s">
         <v>1233</v>
       </c>
-      <c r="J243" t="n">
+      <c r="J243">
         <v>139078</v>
       </c>
       <c r="K243" t="s">
@@ -20102,7 +20753,7 @@
       </c>
     </row>
     <row r="244" spans="1:18">
-      <c r="A244" t="n">
+      <c r="A244">
         <v>3828546</v>
       </c>
       <c r="B244" t="s">
@@ -20129,7 +20780,7 @@
       <c r="I244" t="s">
         <v>1239</v>
       </c>
-      <c r="J244" t="n">
+      <c r="J244">
         <v>113856</v>
       </c>
       <c r="K244" t="s">
@@ -20158,7 +20809,7 @@
       </c>
     </row>
     <row r="245" spans="1:18">
-      <c r="A245" t="n">
+      <c r="A245">
         <v>3253580</v>
       </c>
       <c r="B245" t="s">
@@ -20185,7 +20836,7 @@
       <c r="I245" t="s">
         <v>1246</v>
       </c>
-      <c r="J245" t="n">
+      <c r="J245">
         <v>28014</v>
       </c>
       <c r="K245" t="s">
@@ -20214,7 +20865,7 @@
       </c>
     </row>
     <row r="246" spans="1:18">
-      <c r="A246" t="n">
+      <c r="A246">
         <v>3568461</v>
       </c>
       <c r="B246" t="s">
@@ -20241,7 +20892,7 @@
       <c r="I246" t="s">
         <v>1199</v>
       </c>
-      <c r="J246" t="n">
+      <c r="J246">
         <v>83866</v>
       </c>
       <c r="K246" t="s">
@@ -20270,7 +20921,7 @@
       </c>
     </row>
     <row r="247" spans="1:18">
-      <c r="A247" t="n">
+      <c r="A247">
         <v>3718372</v>
       </c>
       <c r="B247" t="s">
@@ -20297,7 +20948,7 @@
       <c r="I247" t="s">
         <v>1255</v>
       </c>
-      <c r="J247" t="n">
+      <c r="J247">
         <v>5806</v>
       </c>
       <c r="K247" t="s">
@@ -20326,7 +20977,7 @@
       </c>
     </row>
     <row r="248" spans="1:18">
-      <c r="A248" t="n">
+      <c r="A248">
         <v>3633066</v>
       </c>
       <c r="B248" t="s">
@@ -20353,7 +21004,7 @@
       <c r="I248" t="s">
         <v>384</v>
       </c>
-      <c r="J248" t="n">
+      <c r="J248">
         <v>13179</v>
       </c>
       <c r="K248" t="s">
@@ -20382,7 +21033,7 @@
       </c>
     </row>
     <row r="249" spans="1:18">
-      <c r="A249" t="n">
+      <c r="A249">
         <v>3901332</v>
       </c>
       <c r="B249" t="s">
@@ -20409,7 +21060,7 @@
       <c r="I249" t="s">
         <v>951</v>
       </c>
-      <c r="J249" t="n">
+      <c r="J249">
         <v>153849</v>
       </c>
       <c r="K249" t="s">
@@ -20438,7 +21089,7 @@
       </c>
     </row>
     <row r="250" spans="1:18">
-      <c r="A250" t="n">
+      <c r="A250">
         <v>3834507</v>
       </c>
       <c r="B250" t="s">
@@ -20465,7 +21116,7 @@
       <c r="I250" t="s">
         <v>1270</v>
       </c>
-      <c r="J250" t="n">
+      <c r="J250">
         <v>139603</v>
       </c>
       <c r="K250" t="s">
@@ -20494,7 +21145,7 @@
       </c>
     </row>
     <row r="251" spans="1:18">
-      <c r="A251" t="n">
+      <c r="A251">
         <v>3552647</v>
       </c>
       <c r="B251" t="s">
@@ -20521,7 +21172,7 @@
       <c r="I251" t="s">
         <v>1100</v>
       </c>
-      <c r="J251" t="n">
+      <c r="J251">
         <v>106303</v>
       </c>
       <c r="K251" t="s">
@@ -20550,7 +21201,7 @@
       </c>
     </row>
     <row r="252" spans="1:18">
-      <c r="A252" t="n">
+      <c r="A252">
         <v>3545766</v>
       </c>
       <c r="B252" t="s">
@@ -20577,7 +21228,7 @@
       <c r="I252" t="s">
         <v>914</v>
       </c>
-      <c r="J252" t="n">
+      <c r="J252">
         <v>6364</v>
       </c>
       <c r="K252" t="s">
@@ -20606,7 +21257,7 @@
       </c>
     </row>
     <row r="253" spans="1:18">
-      <c r="A253" t="n">
+      <c r="A253">
         <v>3784470</v>
       </c>
       <c r="B253" t="s">
@@ -20633,7 +21284,7 @@
       <c r="I253" t="s">
         <v>921</v>
       </c>
-      <c r="J253" t="n">
+      <c r="J253">
         <v>520</v>
       </c>
       <c r="K253" t="s">
@@ -20662,7 +21313,7 @@
       </c>
     </row>
     <row r="254" spans="1:18">
-      <c r="A254" t="n">
+      <c r="A254">
         <v>4051374</v>
       </c>
       <c r="B254" t="s">
@@ -20689,7 +21340,7 @@
       <c r="I254" t="s">
         <v>1282</v>
       </c>
-      <c r="J254" t="n">
+      <c r="J254">
         <v>314386</v>
       </c>
       <c r="K254" t="s">
@@ -20718,7 +21369,7 @@
       </c>
     </row>
     <row r="255" spans="1:18">
-      <c r="A255" t="n">
+      <c r="A255">
         <v>4039922</v>
       </c>
       <c r="B255" t="s">
@@ -20745,7 +21396,7 @@
       <c r="I255" t="s">
         <v>1287</v>
       </c>
-      <c r="J255" t="n">
+      <c r="J255">
         <v>72106</v>
       </c>
       <c r="K255" t="s">
@@ -20774,7 +21425,7 @@
       </c>
     </row>
     <row r="256" spans="1:18">
-      <c r="A256" t="n">
+      <c r="A256">
         <v>635342</v>
       </c>
       <c r="B256" t="s">
@@ -20801,7 +21452,7 @@
       <c r="I256" t="s">
         <v>297</v>
       </c>
-      <c r="J256" t="n">
+      <c r="J256">
         <v>534</v>
       </c>
       <c r="K256" t="s">
@@ -20830,7 +21481,7 @@
       </c>
     </row>
     <row r="257" spans="1:18">
-      <c r="A257" t="n">
+      <c r="A257">
         <v>3652639</v>
       </c>
       <c r="B257" t="s">
@@ -20857,7 +21508,7 @@
       <c r="I257" t="s">
         <v>146</v>
       </c>
-      <c r="J257" t="n">
+      <c r="J257">
         <v>50702</v>
       </c>
       <c r="K257" t="s">
@@ -20886,7 +21537,7 @@
       </c>
     </row>
     <row r="258" spans="1:18">
-      <c r="A258" t="n">
+      <c r="A258">
         <v>3363728</v>
       </c>
       <c r="B258" t="s">
@@ -20913,7 +21564,7 @@
       <c r="I258" t="s">
         <v>122</v>
       </c>
-      <c r="J258" t="n">
+      <c r="J258">
         <v>2474</v>
       </c>
       <c r="K258" t="s">
@@ -20942,7 +21593,7 @@
       </c>
     </row>
     <row r="259" spans="1:18">
-      <c r="A259" t="n">
+      <c r="A259">
         <v>4058963</v>
       </c>
       <c r="B259" t="s">
@@ -20969,7 +21620,7 @@
       <c r="I259" t="s">
         <v>1301</v>
       </c>
-      <c r="J259" t="n">
+      <c r="J259">
         <v>1880</v>
       </c>
       <c r="K259" t="s">
@@ -20998,7 +21649,7 @@
       </c>
     </row>
     <row r="260" spans="1:18">
-      <c r="A260" t="n">
+      <c r="A260">
         <v>3984704</v>
       </c>
       <c r="B260" t="s">
@@ -21025,7 +21676,7 @@
       <c r="I260" t="s">
         <v>1306</v>
       </c>
-      <c r="J260" t="n">
+      <c r="J260">
         <v>99089</v>
       </c>
       <c r="K260" t="s">
@@ -21054,7 +21705,7 @@
       </c>
     </row>
     <row r="261" spans="1:18">
-      <c r="A261" t="n">
+      <c r="A261">
         <v>3388876</v>
       </c>
       <c r="B261" t="s">
@@ -21081,7 +21732,7 @@
       <c r="I261" t="s">
         <v>882</v>
       </c>
-      <c r="J261" t="n">
+      <c r="J261">
         <v>55446</v>
       </c>
       <c r="K261" t="s">
@@ -21110,7 +21761,7 @@
       </c>
     </row>
     <row r="262" spans="1:18">
-      <c r="A262" t="n">
+      <c r="A262">
         <v>2843445</v>
       </c>
       <c r="B262" t="s">
@@ -21137,7 +21788,7 @@
       <c r="I262" t="s">
         <v>161</v>
       </c>
-      <c r="J262" t="n">
+      <c r="J262">
         <v>26962</v>
       </c>
       <c r="K262" t="s">
@@ -21166,7 +21817,7 @@
       </c>
     </row>
     <row r="263" spans="1:18">
-      <c r="A263" t="n">
+      <c r="A263">
         <v>3539665</v>
       </c>
       <c r="B263" t="s">
@@ -21193,7 +21844,7 @@
       <c r="I263" t="s">
         <v>1318</v>
       </c>
-      <c r="J263" t="n">
+      <c r="J263">
         <v>199056</v>
       </c>
       <c r="K263" t="s">
@@ -21222,7 +21873,7 @@
       </c>
     </row>
     <row r="264" spans="1:18">
-      <c r="A264" t="n">
+      <c r="A264">
         <v>4058342</v>
       </c>
       <c r="B264" t="s">
@@ -21249,7 +21900,7 @@
       <c r="I264" t="s">
         <v>476</v>
       </c>
-      <c r="J264" t="n">
+      <c r="J264">
         <v>139755</v>
       </c>
       <c r="K264" t="s">
@@ -21278,7 +21929,7 @@
       </c>
     </row>
     <row r="265" spans="1:18">
-      <c r="A265" t="n">
+      <c r="A265">
         <v>3189923</v>
       </c>
       <c r="B265" t="s">
@@ -21305,7 +21956,7 @@
       <c r="I265" t="s">
         <v>170</v>
       </c>
-      <c r="J265" t="n">
+      <c r="J265">
         <v>91</v>
       </c>
       <c r="K265" t="s">
@@ -21334,7 +21985,7 @@
       </c>
     </row>
     <row r="266" spans="1:18">
-      <c r="A266" t="n">
+      <c r="A266">
         <v>3511219</v>
       </c>
       <c r="B266" t="s">
@@ -21361,7 +22012,7 @@
       <c r="I266" t="s">
         <v>951</v>
       </c>
-      <c r="J266" t="n">
+      <c r="J266">
         <v>153849</v>
       </c>
       <c r="K266" t="s">
@@ -21390,7 +22041,7 @@
       </c>
     </row>
     <row r="267" spans="1:18">
-      <c r="A267" t="n">
+      <c r="A267">
         <v>3251068</v>
       </c>
       <c r="B267" t="s">
@@ -21417,7 +22068,7 @@
       <c r="I267" t="s">
         <v>1330</v>
       </c>
-      <c r="J267" t="n">
+      <c r="J267">
         <v>9251</v>
       </c>
       <c r="K267" t="s">
@@ -21446,7 +22097,7 @@
       </c>
     </row>
     <row r="268" spans="1:18">
-      <c r="A268" t="n">
+      <c r="A268">
         <v>3274053</v>
       </c>
       <c r="B268" t="s">
@@ -21473,7 +22124,7 @@
       <c r="I268" t="s">
         <v>1043</v>
       </c>
-      <c r="J268" t="n">
+      <c r="J268">
         <v>160479</v>
       </c>
       <c r="K268" t="s">
@@ -21502,7 +22153,7 @@
       </c>
     </row>
     <row r="269" spans="1:18">
-      <c r="A269" t="n">
+      <c r="A269">
         <v>3513375</v>
       </c>
       <c r="B269" t="s">
@@ -21529,7 +22180,7 @@
       <c r="I269" t="s">
         <v>1338</v>
       </c>
-      <c r="J269" t="n">
+      <c r="J269">
         <v>168219</v>
       </c>
       <c r="K269" t="s">
@@ -21558,7 +22209,7 @@
       </c>
     </row>
     <row r="270" spans="1:18">
-      <c r="A270" t="n">
+      <c r="A270">
         <v>430760</v>
       </c>
       <c r="B270" t="s">
@@ -21585,7 +22236,7 @@
       <c r="I270" t="s">
         <v>1342</v>
       </c>
-      <c r="J270" t="n">
+      <c r="J270">
         <v>15265</v>
       </c>
       <c r="K270" t="s">
@@ -21614,7 +22265,7 @@
       </c>
     </row>
     <row r="271" spans="1:18">
-      <c r="A271" t="n">
+      <c r="A271">
         <v>3700682</v>
       </c>
       <c r="B271" t="s">
@@ -21641,7 +22292,7 @@
       <c r="I271" t="s">
         <v>1348</v>
       </c>
-      <c r="J271" t="n">
+      <c r="J271">
         <v>22851</v>
       </c>
       <c r="K271" t="s">
@@ -21670,7 +22321,7 @@
       </c>
     </row>
     <row r="272" spans="1:18">
-      <c r="A272" t="n">
+      <c r="A272">
         <v>3181550</v>
       </c>
       <c r="B272" t="s">
@@ -21697,7 +22348,7 @@
       <c r="I272" t="s">
         <v>146</v>
       </c>
-      <c r="J272" t="n">
+      <c r="J272">
         <v>50702</v>
       </c>
       <c r="K272" t="s">
@@ -21726,7 +22377,7 @@
       </c>
     </row>
     <row r="273" spans="1:18">
-      <c r="A273" t="n">
+      <c r="A273">
         <v>2788406</v>
       </c>
       <c r="B273" t="s">
@@ -21753,7 +22404,7 @@
       <c r="I273" t="s">
         <v>882</v>
       </c>
-      <c r="J273" t="n">
+      <c r="J273">
         <v>55446</v>
       </c>
       <c r="K273" t="s">
@@ -21782,7 +22433,7 @@
       </c>
     </row>
     <row r="274" spans="1:18">
-      <c r="A274" t="n">
+      <c r="A274">
         <v>3740755</v>
       </c>
       <c r="B274" t="s">
@@ -21809,7 +22460,7 @@
       <c r="I274" t="s">
         <v>1361</v>
       </c>
-      <c r="J274" t="n">
+      <c r="J274">
         <v>34200</v>
       </c>
       <c r="K274" t="s">
@@ -21838,7 +22489,7 @@
       </c>
     </row>
     <row r="275" spans="1:18">
-      <c r="A275" t="n">
+      <c r="A275">
         <v>3946271</v>
       </c>
       <c r="B275" t="s">
@@ -21865,7 +22516,7 @@
       <c r="I275" t="s">
         <v>57</v>
       </c>
-      <c r="J275" t="n">
+      <c r="J275">
         <v>165926</v>
       </c>
       <c r="K275" t="s">
@@ -21894,7 +22545,7 @@
       </c>
     </row>
     <row r="276" spans="1:18">
-      <c r="A276" t="n">
+      <c r="A276">
         <v>3174395</v>
       </c>
       <c r="B276" t="s">
@@ -21921,7 +22572,7 @@
       <c r="I276" t="s">
         <v>731</v>
       </c>
-      <c r="J276" t="n">
+      <c r="J276">
         <v>118287</v>
       </c>
       <c r="K276" t="s">
@@ -21950,7 +22601,7 @@
       </c>
     </row>
     <row r="277" spans="1:18">
-      <c r="A277" t="n">
+      <c r="A277">
         <v>3276471</v>
       </c>
       <c r="B277" t="s">
@@ -21977,7 +22628,7 @@
       <c r="I277" t="s">
         <v>1043</v>
       </c>
-      <c r="J277" t="n">
+      <c r="J277">
         <v>160479</v>
       </c>
       <c r="K277" t="s">
@@ -22006,7 +22657,7 @@
       </c>
     </row>
     <row r="278" spans="1:18">
-      <c r="A278" t="n">
+      <c r="A278">
         <v>3497285</v>
       </c>
       <c r="B278" t="s">
@@ -22033,7 +22684,7 @@
       <c r="I278" t="s">
         <v>641</v>
       </c>
-      <c r="J278" t="n">
+      <c r="J278">
         <v>17751</v>
       </c>
       <c r="K278" t="s">
@@ -22062,7 +22713,7 @@
       </c>
     </row>
     <row r="279" spans="1:18">
-      <c r="A279" t="n">
+      <c r="A279">
         <v>3932273</v>
       </c>
       <c r="B279" t="s">
@@ -22089,7 +22740,7 @@
       <c r="I279" t="s">
         <v>57</v>
       </c>
-      <c r="J279" t="n">
+      <c r="J279">
         <v>23702</v>
       </c>
       <c r="K279" t="s">
@@ -22118,7 +22769,7 @@
       </c>
     </row>
     <row r="280" spans="1:18">
-      <c r="A280" t="n">
+      <c r="A280">
         <v>3945815</v>
       </c>
       <c r="B280" t="s">
@@ -22145,7 +22796,7 @@
       <c r="I280" t="s">
         <v>1384</v>
       </c>
-      <c r="J280" t="n">
+      <c r="J280">
         <v>50285</v>
       </c>
       <c r="K280" t="s">
@@ -22174,7 +22825,7 @@
       </c>
     </row>
     <row r="281" spans="1:18">
-      <c r="A281" t="n">
+      <c r="A281">
         <v>3809245</v>
       </c>
       <c r="B281" t="s">
@@ -22201,7 +22852,7 @@
       <c r="I281" t="s">
         <v>921</v>
       </c>
-      <c r="J281" t="n">
+      <c r="J281">
         <v>520</v>
       </c>
       <c r="K281" t="s">
@@ -22230,7 +22881,7 @@
       </c>
     </row>
     <row r="282" spans="1:18">
-      <c r="A282" t="n">
+      <c r="A282">
         <v>3877581</v>
       </c>
       <c r="B282" t="s">
@@ -22257,7 +22908,7 @@
       <c r="I282" t="s">
         <v>1392</v>
       </c>
-      <c r="J282" t="n">
+      <c r="J282">
         <v>25560</v>
       </c>
       <c r="K282" t="s">
@@ -22286,7 +22937,7 @@
       </c>
     </row>
     <row r="283" spans="1:18">
-      <c r="A283" t="n">
+      <c r="A283">
         <v>1260163</v>
       </c>
       <c r="B283" t="s">
@@ -22313,7 +22964,7 @@
       <c r="I283" t="s">
         <v>1398</v>
       </c>
-      <c r="J283" t="n">
+      <c r="J283">
         <v>5330</v>
       </c>
       <c r="K283" t="s">
@@ -22342,7 +22993,7 @@
       </c>
     </row>
     <row r="284" spans="1:18">
-      <c r="A284" t="n">
+      <c r="A284">
         <v>3987985</v>
       </c>
       <c r="B284" t="s">
@@ -22369,7 +23020,7 @@
       <c r="I284" t="s">
         <v>1405</v>
       </c>
-      <c r="J284" t="n">
+      <c r="J284">
         <v>123562</v>
       </c>
       <c r="K284" t="s">
@@ -22398,7 +23049,7 @@
       </c>
     </row>
     <row r="285" spans="1:18">
-      <c r="A285" t="n">
+      <c r="A285">
         <v>3840234</v>
       </c>
       <c r="B285" t="s">
@@ -22425,7 +23076,7 @@
       <c r="I285" t="s">
         <v>1411</v>
       </c>
-      <c r="J285" t="n">
+      <c r="J285">
         <v>89908</v>
       </c>
       <c r="K285" t="s">
@@ -22454,7 +23105,7 @@
       </c>
     </row>
     <row r="286" spans="1:18">
-      <c r="A286" t="n">
+      <c r="A286">
         <v>3988183</v>
       </c>
       <c r="B286" t="s">
@@ -22481,7 +23132,7 @@
       <c r="I286" t="s">
         <v>956</v>
       </c>
-      <c r="J286" t="n">
+      <c r="J286">
         <v>23291</v>
       </c>
       <c r="K286" t="s">
@@ -22510,7 +23161,7 @@
       </c>
     </row>
     <row r="287" spans="1:18">
-      <c r="A287" t="n">
+      <c r="A287">
         <v>4049588</v>
       </c>
       <c r="B287" t="s">
@@ -22537,7 +23188,7 @@
       <c r="I287" t="s">
         <v>146</v>
       </c>
-      <c r="J287" t="n">
+      <c r="J287">
         <v>50702</v>
       </c>
       <c r="K287" t="s">
@@ -22566,7 +23217,7 @@
       </c>
     </row>
     <row r="288" spans="1:18">
-      <c r="A288" t="n">
+      <c r="A288">
         <v>2531930</v>
       </c>
       <c r="B288" t="s">
@@ -22593,7 +23244,7 @@
       <c r="I288" t="s">
         <v>759</v>
       </c>
-      <c r="J288" t="n">
+      <c r="J288">
         <v>32799</v>
       </c>
       <c r="K288" t="s">
@@ -22622,7 +23273,7 @@
       </c>
     </row>
     <row r="289" spans="1:18">
-      <c r="A289" t="n">
+      <c r="A289">
         <v>4009204</v>
       </c>
       <c r="B289" t="s">
@@ -22649,7 +23300,7 @@
       <c r="I289" t="s">
         <v>515</v>
       </c>
-      <c r="J289" t="n">
+      <c r="J289">
         <v>29496</v>
       </c>
       <c r="K289" t="s">
@@ -22678,7 +23329,7 @@
       </c>
     </row>
     <row r="290" spans="1:18">
-      <c r="A290" t="n">
+      <c r="A290">
         <v>2932486</v>
       </c>
       <c r="B290" t="s">
@@ -22705,7 +23356,7 @@
       <c r="I290" t="s">
         <v>191</v>
       </c>
-      <c r="J290" t="n">
+      <c r="J290">
         <v>93141</v>
       </c>
       <c r="K290" t="s">
@@ -22734,7 +23385,7 @@
       </c>
     </row>
     <row r="291" spans="1:18">
-      <c r="A291" t="n">
+      <c r="A291">
         <v>3330342</v>
       </c>
       <c r="B291" t="s">
@@ -22761,7 +23412,7 @@
       <c r="I291" t="s">
         <v>1429</v>
       </c>
-      <c r="J291" t="n">
+      <c r="J291">
         <v>29795</v>
       </c>
       <c r="K291" t="s">
@@ -22790,7 +23441,7 @@
       </c>
     </row>
     <row r="292" spans="1:18">
-      <c r="A292" t="n">
+      <c r="A292">
         <v>3959268</v>
       </c>
       <c r="B292" t="s">
@@ -22817,7 +23468,7 @@
       <c r="I292" t="s">
         <v>1433</v>
       </c>
-      <c r="J292" t="n">
+      <c r="J292">
         <v>34214</v>
       </c>
       <c r="K292" t="s">
@@ -22846,7 +23497,7 @@
       </c>
     </row>
     <row r="293" spans="1:18">
-      <c r="A293" t="n">
+      <c r="A293">
         <v>4014929</v>
       </c>
       <c r="B293" t="s">
@@ -22873,7 +23524,7 @@
       <c r="I293" t="s">
         <v>1074</v>
       </c>
-      <c r="J293" t="n">
+      <c r="J293">
         <v>172285</v>
       </c>
       <c r="K293" t="s">
@@ -22902,7 +23553,7 @@
       </c>
     </row>
     <row r="294" spans="1:18">
-      <c r="A294" t="n">
+      <c r="A294">
         <v>3991082</v>
       </c>
       <c r="B294" t="s">
@@ -22929,7 +23580,7 @@
       <c r="I294" t="s">
         <v>545</v>
       </c>
-      <c r="J294" t="n">
+      <c r="J294">
         <v>3194</v>
       </c>
       <c r="K294" t="s">
@@ -22958,7 +23609,7 @@
       </c>
     </row>
     <row r="295" spans="1:18">
-      <c r="A295" t="n">
+      <c r="A295">
         <v>2417856</v>
       </c>
       <c r="B295" t="s">
@@ -22985,7 +23636,7 @@
       <c r="I295" t="s">
         <v>1441</v>
       </c>
-      <c r="J295" t="n">
+      <c r="J295">
         <v>33646</v>
       </c>
       <c r="K295" t="s">
@@ -23014,7 +23665,7 @@
       </c>
     </row>
     <row r="296" spans="1:18">
-      <c r="A296" t="n">
+      <c r="A296">
         <v>3511149</v>
       </c>
       <c r="B296" t="s">
@@ -23041,7 +23692,7 @@
       <c r="I296" t="s">
         <v>951</v>
       </c>
-      <c r="J296" t="n">
+      <c r="J296">
         <v>153849</v>
       </c>
       <c r="K296" t="s">
@@ -23070,7 +23721,7 @@
       </c>
     </row>
     <row r="297" spans="1:18">
-      <c r="A297" t="n">
+      <c r="A297">
         <v>3582811</v>
       </c>
       <c r="B297" t="s">
@@ -23097,7 +23748,7 @@
       <c r="I297" t="s">
         <v>1449</v>
       </c>
-      <c r="J297" t="n">
+      <c r="J297">
         <v>35713</v>
       </c>
       <c r="K297" t="s">
@@ -23126,7 +23777,7 @@
       </c>
     </row>
     <row r="298" spans="1:18">
-      <c r="A298" t="n">
+      <c r="A298">
         <v>3983733</v>
       </c>
       <c r="B298" t="s">
@@ -23153,7 +23804,7 @@
       <c r="I298" t="s">
         <v>1080</v>
       </c>
-      <c r="J298" t="n">
+      <c r="J298">
         <v>3038</v>
       </c>
       <c r="K298" t="s">
@@ -23182,7 +23833,7 @@
       </c>
     </row>
     <row r="299" spans="1:18">
-      <c r="A299" t="n">
+      <c r="A299">
         <v>3255176</v>
       </c>
       <c r="B299" t="s">
@@ -23209,7 +23860,7 @@
       <c r="I299" t="s">
         <v>1457</v>
       </c>
-      <c r="J299" t="n">
+      <c r="J299">
         <v>73447</v>
       </c>
       <c r="K299" t="s">
@@ -23238,7 +23889,7 @@
       </c>
     </row>
     <row r="300" spans="1:18">
-      <c r="A300" t="n">
+      <c r="A300">
         <v>3193650</v>
       </c>
       <c r="B300" t="s">
@@ -23265,7 +23916,7 @@
       <c r="I300" t="s">
         <v>40</v>
       </c>
-      <c r="J300" t="n">
+      <c r="J300">
         <v>160065</v>
       </c>
       <c r="K300" t="s">
@@ -23294,7 +23945,7 @@
       </c>
     </row>
     <row r="301" spans="1:18">
-      <c r="A301" t="n">
+      <c r="A301">
         <v>4066937</v>
       </c>
       <c r="B301" t="s">
@@ -23321,7 +23972,7 @@
       <c r="I301" t="s">
         <v>57</v>
       </c>
-      <c r="J301" t="n">
+      <c r="J301">
         <v>120027</v>
       </c>
       <c r="K301" t="s">
@@ -23350,7 +24001,7 @@
       </c>
     </row>
     <row r="302" spans="1:18">
-      <c r="A302" t="n">
+      <c r="A302">
         <v>4010728</v>
       </c>
       <c r="B302" t="s">
@@ -23377,7 +24028,7 @@
       <c r="I302" t="s">
         <v>146</v>
       </c>
-      <c r="J302" t="n">
+      <c r="J302">
         <v>50702</v>
       </c>
       <c r="K302" t="s">
@@ -23406,7 +24057,7 @@
       </c>
     </row>
     <row r="303" spans="1:18">
-      <c r="A303" t="n">
+      <c r="A303">
         <v>3535992</v>
       </c>
       <c r="B303" t="s">
@@ -23433,7 +24084,7 @@
       <c r="I303" t="s">
         <v>1466</v>
       </c>
-      <c r="J303" t="n">
+      <c r="J303">
         <v>136443</v>
       </c>
       <c r="K303" t="s">
@@ -23462,7 +24113,7 @@
       </c>
     </row>
     <row r="304" spans="1:18">
-      <c r="A304" t="n">
+      <c r="A304">
         <v>3865945</v>
       </c>
       <c r="B304" t="s">
@@ -23489,7 +24140,7 @@
       <c r="I304" t="s">
         <v>951</v>
       </c>
-      <c r="J304" t="n">
+      <c r="J304">
         <v>153849</v>
       </c>
       <c r="K304" t="s">
@@ -23518,7 +24169,7 @@
       </c>
     </row>
     <row r="305" spans="1:18">
-      <c r="A305" t="n">
+      <c r="A305">
         <v>3978614</v>
       </c>
       <c r="B305" t="s">
@@ -23545,7 +24196,7 @@
       <c r="I305" t="s">
         <v>1100</v>
       </c>
-      <c r="J305" t="n">
+      <c r="J305">
         <v>106303</v>
       </c>
       <c r="K305" t="s">
@@ -23574,7 +24225,7 @@
       </c>
     </row>
     <row r="306" spans="1:18">
-      <c r="A306" t="n">
+      <c r="A306">
         <v>3118856</v>
       </c>
       <c r="B306" t="s">
@@ -23601,7 +24252,7 @@
       <c r="I306" t="s">
         <v>1318</v>
       </c>
-      <c r="J306" t="n">
+      <c r="J306">
         <v>199056</v>
       </c>
       <c r="K306" t="s">
@@ -23630,7 +24281,7 @@
       </c>
     </row>
     <row r="307" spans="1:18">
-      <c r="A307" t="n">
+      <c r="A307">
         <v>3793613</v>
       </c>
       <c r="B307" t="s">
@@ -23657,7 +24308,7 @@
       <c r="I307" t="s">
         <v>57</v>
       </c>
-      <c r="J307" t="n">
+      <c r="J307">
         <v>148393</v>
       </c>
       <c r="K307" t="s">
@@ -23686,7 +24337,7 @@
       </c>
     </row>
     <row r="308" spans="1:18">
-      <c r="A308" t="n">
+      <c r="A308">
         <v>3550689</v>
       </c>
       <c r="B308" t="s">
@@ -23713,7 +24364,7 @@
       <c r="I308" t="s">
         <v>1126</v>
       </c>
-      <c r="J308" t="n">
+      <c r="J308">
         <v>83712</v>
       </c>
       <c r="K308" t="s">
@@ -23742,7 +24393,7 @@
       </c>
     </row>
     <row r="309" spans="1:18">
-      <c r="A309" t="n">
+      <c r="A309">
         <v>3429232</v>
       </c>
       <c r="B309" t="s">
@@ -23769,7 +24420,7 @@
       <c r="I309" t="s">
         <v>1492</v>
       </c>
-      <c r="J309" t="n">
+      <c r="J309">
         <v>18739</v>
       </c>
       <c r="K309" t="s">
@@ -23798,7 +24449,7 @@
       </c>
     </row>
     <row r="310" spans="1:18">
-      <c r="A310" t="n">
+      <c r="A310">
         <v>2314901</v>
       </c>
       <c r="B310" t="s">
@@ -23825,7 +24476,7 @@
       <c r="I310" t="s">
         <v>818</v>
       </c>
-      <c r="J310" t="n">
+      <c r="J310">
         <v>4184</v>
       </c>
       <c r="K310" t="s">
@@ -23854,7 +24505,7 @@
       </c>
     </row>
     <row r="311" spans="1:18">
-      <c r="A311" t="n">
+      <c r="A311">
         <v>3264842</v>
       </c>
       <c r="B311" t="s">
@@ -23881,7 +24532,7 @@
       <c r="I311" t="s">
         <v>1498</v>
       </c>
-      <c r="J311" t="n">
+      <c r="J311">
         <v>28243</v>
       </c>
       <c r="K311" t="s">
@@ -23910,7 +24561,7 @@
       </c>
     </row>
     <row r="312" spans="1:18">
-      <c r="A312" t="n">
+      <c r="A312">
         <v>1638580</v>
       </c>
       <c r="B312" t="s">
@@ -23937,7 +24588,7 @@
       <c r="I312" t="s">
         <v>1080</v>
       </c>
-      <c r="J312" t="n">
+      <c r="J312">
         <v>3038</v>
       </c>
       <c r="K312" t="s">
@@ -23966,7 +24617,7 @@
       </c>
     </row>
     <row r="313" spans="1:18">
-      <c r="A313" t="n">
+      <c r="A313">
         <v>3735263</v>
       </c>
       <c r="B313" t="s">
@@ -23993,7 +24644,7 @@
       <c r="I313" t="s">
         <v>1505</v>
       </c>
-      <c r="J313" t="n">
+      <c r="J313">
         <v>59949</v>
       </c>
       <c r="K313" t="s">
@@ -24022,7 +24673,7 @@
       </c>
     </row>
     <row r="314" spans="1:18">
-      <c r="A314" t="n">
+      <c r="A314">
         <v>2745368</v>
       </c>
       <c r="B314" t="s">
@@ -24049,7 +24700,7 @@
       <c r="I314" t="s">
         <v>465</v>
       </c>
-      <c r="J314" t="n">
+      <c r="J314">
         <v>3328</v>
       </c>
       <c r="K314" t="s">
@@ -24078,7 +24729,7 @@
       </c>
     </row>
     <row r="315" spans="1:18">
-      <c r="A315" t="n">
+      <c r="A315">
         <v>4011515</v>
       </c>
       <c r="B315" t="s">
@@ -24105,7 +24756,7 @@
       <c r="I315" t="s">
         <v>1512</v>
       </c>
-      <c r="J315" t="n">
+      <c r="J315">
         <v>589</v>
       </c>
       <c r="K315" t="s">
@@ -24134,7 +24785,7 @@
       </c>
     </row>
     <row r="316" spans="1:18">
-      <c r="A316" t="n">
+      <c r="A316">
         <v>3928673</v>
       </c>
       <c r="B316" t="s">
@@ -24161,7 +24812,7 @@
       <c r="I316" t="s">
         <v>1518</v>
       </c>
-      <c r="J316" t="n">
+      <c r="J316">
         <v>23687</v>
       </c>
       <c r="K316" t="s">
@@ -24190,7 +24841,7 @@
       </c>
     </row>
     <row r="317" spans="1:18">
-      <c r="A317" t="n">
+      <c r="A317">
         <v>3916494</v>
       </c>
       <c r="B317" t="s">
@@ -24217,7 +24868,7 @@
       <c r="I317" t="s">
         <v>146</v>
       </c>
-      <c r="J317" t="n">
+      <c r="J317">
         <v>50702</v>
       </c>
       <c r="K317" t="s">
@@ -24246,7 +24897,7 @@
       </c>
     </row>
     <row r="318" spans="1:18">
-      <c r="A318" t="n">
+      <c r="A318">
         <v>3874572</v>
       </c>
       <c r="B318" t="s">
@@ -24273,7 +24924,7 @@
       <c r="I318" t="s">
         <v>1526</v>
       </c>
-      <c r="J318" t="n">
+      <c r="J318">
         <v>289412</v>
       </c>
       <c r="K318" t="s">
@@ -24302,7 +24953,7 @@
       </c>
     </row>
     <row r="319" spans="1:18">
-      <c r="A319" t="n">
+      <c r="A319">
         <v>3640203</v>
       </c>
       <c r="B319" t="s">
@@ -24329,7 +24980,7 @@
       <c r="I319" t="s">
         <v>1534</v>
       </c>
-      <c r="J319" t="n">
+      <c r="J319">
         <v>26742</v>
       </c>
       <c r="K319" t="s">
@@ -24358,7 +25009,7 @@
       </c>
     </row>
     <row r="320" spans="1:18">
-      <c r="A320" t="n">
+      <c r="A320">
         <v>3772250</v>
       </c>
       <c r="B320" t="s">
@@ -24385,7 +25036,7 @@
       <c r="I320" t="s">
         <v>725</v>
       </c>
-      <c r="J320" t="n">
+      <c r="J320">
         <v>40625</v>
       </c>
       <c r="K320" t="s">
@@ -24414,7 +25065,7 @@
       </c>
     </row>
     <row r="321" spans="1:18">
-      <c r="A321" t="n">
+      <c r="A321">
         <v>3472151</v>
       </c>
       <c r="B321" t="s">
@@ -24441,7 +25092,7 @@
       <c r="I321" t="s">
         <v>1541</v>
       </c>
-      <c r="J321" t="n">
+      <c r="J321">
         <v>20917</v>
       </c>
       <c r="K321" t="s">
@@ -24470,7 +25121,7 @@
       </c>
     </row>
     <row r="322" spans="1:18">
-      <c r="A322" t="n">
+      <c r="A322">
         <v>4058441</v>
       </c>
       <c r="B322" t="s">
@@ -24497,7 +25148,7 @@
       <c r="I322" t="s">
         <v>476</v>
       </c>
-      <c r="J322" t="n">
+      <c r="J322">
         <v>139755</v>
       </c>
       <c r="K322" t="s">
@@ -24526,7 +25177,7 @@
       </c>
     </row>
     <row r="323" spans="1:18">
-      <c r="A323" t="n">
+      <c r="A323">
         <v>3081717</v>
       </c>
       <c r="B323" t="s">
@@ -24553,7 +25204,7 @@
       <c r="I323" t="s">
         <v>1547</v>
       </c>
-      <c r="J323" t="n">
+      <c r="J323">
         <v>125138</v>
       </c>
       <c r="K323" t="s">
@@ -24582,7 +25233,7 @@
       </c>
     </row>
     <row r="324" spans="1:18">
-      <c r="A324" t="n">
+      <c r="A324">
         <v>3766934</v>
       </c>
       <c r="B324" t="s">
@@ -24609,7 +25260,7 @@
       <c r="I324" t="s">
         <v>1203</v>
       </c>
-      <c r="J324" t="n">
+      <c r="J324">
         <v>3786</v>
       </c>
       <c r="K324" t="s">
@@ -24638,7 +25289,7 @@
       </c>
     </row>
     <row r="325" spans="1:18">
-      <c r="A325" t="n">
+      <c r="A325">
         <v>4036663</v>
       </c>
       <c r="B325" t="s">
@@ -24665,7 +25316,7 @@
       <c r="I325" t="s">
         <v>951</v>
       </c>
-      <c r="J325" t="n">
+      <c r="J325">
         <v>153849</v>
       </c>
       <c r="K325" t="s">
@@ -24694,7 +25345,7 @@
       </c>
     </row>
     <row r="326" spans="1:18">
-      <c r="A326" t="n">
+      <c r="A326">
         <v>3654345</v>
       </c>
       <c r="B326" t="s">
@@ -24721,7 +25372,7 @@
       <c r="I326" t="s">
         <v>57</v>
       </c>
-      <c r="J326" t="n">
+      <c r="J326">
         <v>75313</v>
       </c>
       <c r="K326" t="s">
@@ -24750,7 +25401,7 @@
       </c>
     </row>
     <row r="327" spans="1:18">
-      <c r="A327" t="n">
+      <c r="A327">
         <v>4056036</v>
       </c>
       <c r="B327" t="s">
@@ -24777,7 +25428,7 @@
       <c r="I327" t="s">
         <v>1563</v>
       </c>
-      <c r="J327" t="n">
+      <c r="J327">
         <v>93527</v>
       </c>
       <c r="K327" t="s">
@@ -24806,7 +25457,7 @@
       </c>
     </row>
     <row r="328" spans="1:18">
-      <c r="A328" t="n">
+      <c r="A328">
         <v>3695412</v>
       </c>
       <c r="B328" t="s">
@@ -24833,7 +25484,7 @@
       <c r="I328" t="s">
         <v>57</v>
       </c>
-      <c r="J328" t="n">
+      <c r="J328">
         <v>144396</v>
       </c>
       <c r="K328" t="s">
@@ -24862,7 +25513,7 @@
       </c>
     </row>
     <row r="329" spans="1:18">
-      <c r="A329" t="n">
+      <c r="A329">
         <v>3935586</v>
       </c>
       <c r="B329" t="s">
@@ -24889,7 +25540,7 @@
       <c r="I329" t="s">
         <v>697</v>
       </c>
-      <c r="J329" t="n">
+      <c r="J329">
         <v>8523</v>
       </c>
       <c r="K329" t="s">
@@ -24918,7 +25569,7 @@
       </c>
     </row>
     <row r="330" spans="1:18">
-      <c r="A330" t="n">
+      <c r="A330">
         <v>3859295</v>
       </c>
       <c r="B330" t="s">
@@ -24945,7 +25596,7 @@
       <c r="I330" t="s">
         <v>806</v>
       </c>
-      <c r="J330" t="n">
+      <c r="J330">
         <v>86110</v>
       </c>
       <c r="K330" t="s">
@@ -24974,7 +25625,7 @@
       </c>
     </row>
     <row r="331" spans="1:18">
-      <c r="A331" t="n">
+      <c r="A331">
         <v>3630767</v>
       </c>
       <c r="B331" t="s">
@@ -25001,7 +25652,7 @@
       <c r="I331" t="s">
         <v>666</v>
       </c>
-      <c r="J331" t="n">
+      <c r="J331">
         <v>1575</v>
       </c>
       <c r="K331" t="s">
@@ -25030,7 +25681,7 @@
       </c>
     </row>
     <row r="332" spans="1:18">
-      <c r="A332" t="n">
+      <c r="A332">
         <v>3587871</v>
       </c>
       <c r="B332" t="s">
@@ -25057,7 +25708,7 @@
       <c r="I332" t="s">
         <v>973</v>
       </c>
-      <c r="J332" t="n">
+      <c r="J332">
         <v>13809</v>
       </c>
       <c r="K332" t="s">
@@ -25086,7 +25737,7 @@
       </c>
     </row>
     <row r="333" spans="1:18">
-      <c r="A333" t="n">
+      <c r="A333">
         <v>4029327</v>
       </c>
       <c r="B333" t="s">
@@ -25113,7 +25764,7 @@
       <c r="I333" t="s">
         <v>1583</v>
       </c>
-      <c r="J333" t="n">
+      <c r="J333">
         <v>1331</v>
       </c>
       <c r="K333" t="s">
@@ -25142,7 +25793,7 @@
       </c>
     </row>
     <row r="334" spans="1:18">
-      <c r="A334" t="n">
+      <c r="A334">
         <v>4038519</v>
       </c>
       <c r="B334" t="s">
@@ -25169,7 +25820,7 @@
       <c r="I334" t="s">
         <v>1589</v>
       </c>
-      <c r="J334" t="n">
+      <c r="J334">
         <v>147548</v>
       </c>
       <c r="K334" t="s">
@@ -25198,7 +25849,7 @@
       </c>
     </row>
     <row r="335" spans="1:18">
-      <c r="A335" t="n">
+      <c r="A335">
         <v>3504279</v>
       </c>
       <c r="B335" t="s">
@@ -25225,7 +25876,7 @@
       <c r="I335" t="s">
         <v>641</v>
       </c>
-      <c r="J335" t="n">
+      <c r="J335">
         <v>17751</v>
       </c>
       <c r="K335" t="s">
@@ -25254,7 +25905,7 @@
       </c>
     </row>
     <row r="336" spans="1:18">
-      <c r="A336" t="n">
+      <c r="A336">
         <v>3973924</v>
       </c>
       <c r="B336" t="s">
@@ -25281,7 +25932,7 @@
       <c r="I336" t="s">
         <v>465</v>
       </c>
-      <c r="J336" t="n">
+      <c r="J336">
         <v>3328</v>
       </c>
       <c r="K336" t="s">
@@ -25310,7 +25961,7 @@
       </c>
     </row>
     <row r="337" spans="1:18">
-      <c r="A337" t="n">
+      <c r="A337">
         <v>2225573</v>
       </c>
       <c r="B337" t="s">
@@ -25337,7 +25988,7 @@
       <c r="I337" t="s">
         <v>1065</v>
       </c>
-      <c r="J337" t="n">
+      <c r="J337">
         <v>135243</v>
       </c>
       <c r="K337" t="s">
@@ -25366,7 +26017,7 @@
       </c>
     </row>
     <row r="338" spans="1:18">
-      <c r="A338" t="n">
+      <c r="A338">
         <v>2662507</v>
       </c>
       <c r="B338" t="s">
@@ -25393,7 +26044,7 @@
       <c r="I338" t="s">
         <v>1597</v>
       </c>
-      <c r="J338" t="n">
+      <c r="J338">
         <v>38075</v>
       </c>
       <c r="K338" t="s">
@@ -25422,7 +26073,7 @@
       </c>
     </row>
     <row r="339" spans="1:18">
-      <c r="A339" t="n">
+      <c r="A339">
         <v>3218184</v>
       </c>
       <c r="B339" t="s">
@@ -25449,7 +26100,7 @@
       <c r="I339" t="s">
         <v>283</v>
       </c>
-      <c r="J339" t="n">
+      <c r="J339">
         <v>6868</v>
       </c>
       <c r="K339" t="s">
@@ -25478,7 +26129,7 @@
       </c>
     </row>
     <row r="340" spans="1:18">
-      <c r="A340" t="n">
+      <c r="A340">
         <v>3520770</v>
       </c>
       <c r="B340" t="s">
@@ -25505,7 +26156,7 @@
       <c r="I340" t="s">
         <v>1606</v>
       </c>
-      <c r="J340" t="n">
+      <c r="J340">
         <v>143863</v>
       </c>
       <c r="K340" t="s">
@@ -25534,7 +26185,7 @@
       </c>
     </row>
     <row r="341" spans="1:18">
-      <c r="A341" t="n">
+      <c r="A341">
         <v>4022918</v>
       </c>
       <c r="B341" t="s">
@@ -25561,7 +26212,7 @@
       <c r="I341" t="s">
         <v>1612</v>
       </c>
-      <c r="J341" t="n">
+      <c r="J341">
         <v>6636</v>
       </c>
       <c r="K341" t="s">
@@ -25590,7 +26241,7 @@
       </c>
     </row>
     <row r="342" spans="1:18">
-      <c r="A342" t="n">
+      <c r="A342">
         <v>4046565</v>
       </c>
       <c r="B342" t="s">
@@ -25617,7 +26268,7 @@
       <c r="I342" t="s">
         <v>1618</v>
       </c>
-      <c r="J342" t="n">
+      <c r="J342">
         <v>171</v>
       </c>
       <c r="K342" t="s">
@@ -25646,7 +26297,7 @@
       </c>
     </row>
     <row r="343" spans="1:18">
-      <c r="A343" t="n">
+      <c r="A343">
         <v>2714580</v>
       </c>
       <c r="B343" t="s">
@@ -25673,7 +26324,7 @@
       <c r="I343" t="s">
         <v>146</v>
       </c>
-      <c r="J343" t="n">
+      <c r="J343">
         <v>50702</v>
       </c>
       <c r="K343" t="s">
@@ -25702,7 +26353,7 @@
       </c>
     </row>
     <row r="344" spans="1:18">
-      <c r="A344" t="n">
+      <c r="A344">
         <v>3034302</v>
       </c>
       <c r="B344" t="s">
@@ -25729,7 +26380,7 @@
       <c r="I344" t="s">
         <v>1004</v>
       </c>
-      <c r="J344" t="n">
+      <c r="J344">
         <v>139350</v>
       </c>
       <c r="K344" t="s">
@@ -25758,7 +26409,7 @@
       </c>
     </row>
     <row r="345" spans="1:18">
-      <c r="A345" t="n">
+      <c r="A345">
         <v>3512236</v>
       </c>
       <c r="B345" t="s">
@@ -25785,7 +26436,7 @@
       <c r="I345" t="s">
         <v>51</v>
       </c>
-      <c r="J345" t="n">
+      <c r="J345">
         <v>451</v>
       </c>
       <c r="K345" t="s">
@@ -25814,7 +26465,7 @@
       </c>
     </row>
     <row r="346" spans="1:18">
-      <c r="A346" t="n">
+      <c r="A346">
         <v>4009843</v>
       </c>
       <c r="B346" t="s">
@@ -25841,7 +26492,7 @@
       <c r="I346" t="s">
         <v>866</v>
       </c>
-      <c r="J346" t="n">
+      <c r="J346">
         <v>84814</v>
       </c>
       <c r="K346" t="s">
@@ -25870,7 +26521,7 @@
       </c>
     </row>
     <row r="347" spans="1:18">
-      <c r="A347" t="n">
+      <c r="A347">
         <v>2131734</v>
       </c>
       <c r="B347" t="s">
@@ -25897,7 +26548,7 @@
       <c r="I347" t="s">
         <v>1637</v>
       </c>
-      <c r="J347" t="n">
+      <c r="J347">
         <v>31945</v>
       </c>
       <c r="K347" t="s">
@@ -25926,7 +26577,7 @@
       </c>
     </row>
     <row r="348" spans="1:18">
-      <c r="A348" t="n">
+      <c r="A348">
         <v>3784134</v>
       </c>
       <c r="B348" t="s">
@@ -25953,7 +26604,7 @@
       <c r="I348" t="s">
         <v>1645</v>
       </c>
-      <c r="J348" t="n">
+      <c r="J348">
         <v>115357</v>
       </c>
       <c r="K348" t="s">
@@ -25982,7 +26633,7 @@
       </c>
     </row>
     <row r="349" spans="1:18">
-      <c r="A349" t="n">
+      <c r="A349">
         <v>3801591</v>
       </c>
       <c r="B349" t="s">
@@ -26009,7 +26660,7 @@
       <c r="I349" t="s">
         <v>1239</v>
       </c>
-      <c r="J349" t="n">
+      <c r="J349">
         <v>113856</v>
       </c>
       <c r="K349" t="s">
@@ -26038,7 +26689,7 @@
       </c>
     </row>
     <row r="350" spans="1:18">
-      <c r="A350" t="n">
+      <c r="A350">
         <v>3751935</v>
       </c>
       <c r="B350" t="s">
@@ -26065,7 +26716,7 @@
       <c r="I350" t="s">
         <v>1653</v>
       </c>
-      <c r="J350" t="n">
+      <c r="J350">
         <v>5142</v>
       </c>
       <c r="K350" t="s">
@@ -26094,7 +26745,7 @@
       </c>
     </row>
     <row r="351" spans="1:18">
-      <c r="A351" t="n">
+      <c r="A351">
         <v>3856779</v>
       </c>
       <c r="B351" t="s">
@@ -26121,7 +26772,7 @@
       <c r="I351" t="s">
         <v>1660</v>
       </c>
-      <c r="J351" t="n">
+      <c r="J351">
         <v>50784</v>
       </c>
       <c r="K351" t="s">
@@ -26150,7 +26801,7 @@
       </c>
     </row>
     <row r="352" spans="1:18">
-      <c r="A352" t="n">
+      <c r="A352">
         <v>3893459</v>
       </c>
       <c r="B352" t="s">
@@ -26177,7 +26828,7 @@
       <c r="I352" t="s">
         <v>641</v>
       </c>
-      <c r="J352" t="n">
+      <c r="J352">
         <v>17751</v>
       </c>
       <c r="K352" t="s">
@@ -26206,7 +26857,7 @@
       </c>
     </row>
     <row r="353" spans="1:18">
-      <c r="A353" t="n">
+      <c r="A353">
         <v>449812</v>
       </c>
       <c r="B353" t="s">
@@ -26233,7 +26884,7 @@
       <c r="I353" t="s">
         <v>901</v>
       </c>
-      <c r="J353" t="n">
+      <c r="J353">
         <v>129</v>
       </c>
       <c r="K353" t="s">
@@ -26262,7 +26913,7 @@
       </c>
     </row>
     <row r="354" spans="1:18">
-      <c r="A354" t="n">
+      <c r="A354">
         <v>3880743</v>
       </c>
       <c r="B354" t="s">
@@ -26289,7 +26940,7 @@
       <c r="I354" t="s">
         <v>842</v>
       </c>
-      <c r="J354" t="n">
+      <c r="J354">
         <v>19281</v>
       </c>
       <c r="K354" t="s">
@@ -26318,7 +26969,7 @@
       </c>
     </row>
     <row r="355" spans="1:18">
-      <c r="A355" t="n">
+      <c r="A355">
         <v>3903218</v>
       </c>
       <c r="B355" t="s">
@@ -26345,7 +26996,7 @@
       <c r="I355" t="s">
         <v>57</v>
       </c>
-      <c r="J355" t="n">
+      <c r="J355">
         <v>436</v>
       </c>
       <c r="K355" t="s">
@@ -26374,7 +27025,7 @@
       </c>
     </row>
     <row r="356" spans="1:18">
-      <c r="A356" t="n">
+      <c r="A356">
         <v>3511385</v>
       </c>
       <c r="B356" t="s">
@@ -26401,7 +27052,7 @@
       <c r="I356" t="s">
         <v>1675</v>
       </c>
-      <c r="J356" t="n">
+      <c r="J356">
         <v>13639</v>
       </c>
       <c r="K356" t="s">
@@ -26430,7 +27081,7 @@
       </c>
     </row>
     <row r="357" spans="1:18">
-      <c r="A357" t="n">
+      <c r="A357">
         <v>3088216</v>
       </c>
       <c r="B357" t="s">
@@ -26457,7 +27108,7 @@
       <c r="I357" t="s">
         <v>146</v>
       </c>
-      <c r="J357" t="n">
+      <c r="J357">
         <v>50702</v>
       </c>
       <c r="K357" t="s">
@@ -26486,7 +27137,7 @@
       </c>
     </row>
     <row r="358" spans="1:18">
-      <c r="A358" t="n">
+      <c r="A358">
         <v>3444130</v>
       </c>
       <c r="B358" t="s">
@@ -26513,7 +27164,7 @@
       <c r="I358" t="s">
         <v>1683</v>
       </c>
-      <c r="J358" t="n">
+      <c r="J358">
         <v>3058</v>
       </c>
       <c r="K358" t="s">
@@ -26542,7 +27193,7 @@
       </c>
     </row>
     <row r="359" spans="1:18">
-      <c r="A359" t="n">
+      <c r="A359">
         <v>2682844</v>
       </c>
       <c r="B359" t="s">
@@ -26569,7 +27220,7 @@
       <c r="I359" t="s">
         <v>1690</v>
       </c>
-      <c r="J359" t="n">
+      <c r="J359">
         <v>3112</v>
       </c>
       <c r="K359" t="s">
@@ -26598,7 +27249,7 @@
       </c>
     </row>
     <row r="360" spans="1:18">
-      <c r="A360" t="n">
+      <c r="A360">
         <v>3135498</v>
       </c>
       <c r="B360" t="s">
@@ -26625,7 +27276,7 @@
       <c r="I360" t="s">
         <v>1696</v>
       </c>
-      <c r="J360" t="n">
+      <c r="J360">
         <v>17049</v>
       </c>
       <c r="K360" t="s">
@@ -26654,7 +27305,7 @@
       </c>
     </row>
     <row r="361" spans="1:18">
-      <c r="A361" t="n">
+      <c r="A361">
         <v>3104530</v>
       </c>
       <c r="B361" t="s">
@@ -26681,7 +27332,7 @@
       <c r="I361" t="s">
         <v>1703</v>
       </c>
-      <c r="J361" t="n">
+      <c r="J361">
         <v>200554</v>
       </c>
       <c r="K361" t="s">
@@ -26710,7 +27361,7 @@
       </c>
     </row>
     <row r="362" spans="1:18">
-      <c r="A362" t="n">
+      <c r="A362">
         <v>4028736</v>
       </c>
       <c r="B362" t="s">
@@ -26737,7 +27388,7 @@
       <c r="I362" t="s">
         <v>1239</v>
       </c>
-      <c r="J362" t="n">
+      <c r="J362">
         <v>113856</v>
       </c>
       <c r="K362" t="s">
@@ -26766,7 +27417,7 @@
       </c>
     </row>
     <row r="363" spans="1:18">
-      <c r="A363" t="n">
+      <c r="A363">
         <v>3616604</v>
       </c>
       <c r="B363" t="s">
@@ -26793,7 +27444,7 @@
       <c r="I363" t="s">
         <v>882</v>
       </c>
-      <c r="J363" t="n">
+      <c r="J363">
         <v>55446</v>
       </c>
       <c r="K363" t="s">
@@ -26822,7 +27473,7 @@
       </c>
     </row>
     <row r="364" spans="1:18">
-      <c r="A364" t="n">
+      <c r="A364">
         <v>3864928</v>
       </c>
       <c r="B364" t="s">
@@ -26849,7 +27500,7 @@
       <c r="I364" t="s">
         <v>1710</v>
       </c>
-      <c r="J364" t="n">
+      <c r="J364">
         <v>265439</v>
       </c>
       <c r="K364" t="s">
@@ -26878,7 +27529,7 @@
       </c>
     </row>
     <row r="365" spans="1:18">
-      <c r="A365" t="n">
+      <c r="A365">
         <v>3100302</v>
       </c>
       <c r="B365" t="s">
@@ -26905,7 +27556,7 @@
       <c r="I365" t="s">
         <v>871</v>
       </c>
-      <c r="J365" t="n">
+      <c r="J365">
         <v>329</v>
       </c>
       <c r="K365" t="s">
@@ -26934,7 +27585,7 @@
       </c>
     </row>
     <row r="366" spans="1:18">
-      <c r="A366" t="n">
+      <c r="A366">
         <v>3058830</v>
       </c>
       <c r="B366" t="s">
@@ -26961,7 +27612,7 @@
       <c r="I366" t="s">
         <v>1660</v>
       </c>
-      <c r="J366" t="n">
+      <c r="J366">
         <v>43016</v>
       </c>
       <c r="K366" t="s">
@@ -26990,7 +27641,7 @@
       </c>
     </row>
     <row r="367" spans="1:18">
-      <c r="A367" t="n">
+      <c r="A367">
         <v>3881008</v>
       </c>
       <c r="B367" t="s">
@@ -27017,7 +27668,7 @@
       <c r="I367" t="s">
         <v>1128</v>
       </c>
-      <c r="J367" t="n">
+      <c r="J367">
         <v>62</v>
       </c>
       <c r="K367" t="s">
@@ -27046,7 +27697,7 @@
       </c>
     </row>
     <row r="368" spans="1:18">
-      <c r="A368" t="n">
+      <c r="A368">
         <v>3323175</v>
       </c>
       <c r="B368" t="s">
@@ -27073,7 +27724,7 @@
       <c r="I368" t="s">
         <v>1318</v>
       </c>
-      <c r="J368" t="n">
+      <c r="J368">
         <v>199056</v>
       </c>
       <c r="K368" t="s">
@@ -27102,7 +27753,7 @@
       </c>
     </row>
     <row r="369" spans="1:18">
-      <c r="A369" t="n">
+      <c r="A369">
         <v>2885618</v>
       </c>
       <c r="B369" t="s">
@@ -27129,7 +27780,7 @@
       <c r="I369" t="s">
         <v>57</v>
       </c>
-      <c r="J369" t="n">
+      <c r="J369">
         <v>436</v>
       </c>
       <c r="K369" t="s">
@@ -27158,7 +27809,7 @@
       </c>
     </row>
     <row r="370" spans="1:18">
-      <c r="A370" t="n">
+      <c r="A370">
         <v>3962427</v>
       </c>
       <c r="B370" t="s">
@@ -27185,7 +27836,7 @@
       <c r="I370" t="s">
         <v>57</v>
       </c>
-      <c r="J370" t="n">
+      <c r="J370">
         <v>151381</v>
       </c>
       <c r="K370" t="s">
@@ -27214,7 +27865,7 @@
       </c>
     </row>
     <row r="371" spans="1:18">
-      <c r="A371" t="n">
+      <c r="A371">
         <v>2196025</v>
       </c>
       <c r="B371" t="s">
@@ -27241,7 +27892,7 @@
       <c r="I371" t="s">
         <v>1732</v>
       </c>
-      <c r="J371" t="n">
+      <c r="J371">
         <v>51480</v>
       </c>
       <c r="K371" t="s">
@@ -27270,7 +27921,7 @@
       </c>
     </row>
     <row r="372" spans="1:18">
-      <c r="A372" t="n">
+      <c r="A372">
         <v>2687818</v>
       </c>
       <c r="B372" t="s">
@@ -27297,7 +27948,7 @@
       <c r="I372" t="s">
         <v>1037</v>
       </c>
-      <c r="J372" t="n">
+      <c r="J372">
         <v>24748</v>
       </c>
       <c r="K372" t="s">
@@ -27326,7 +27977,7 @@
       </c>
     </row>
     <row r="373" spans="1:18">
-      <c r="A373" t="n">
+      <c r="A373">
         <v>2862561</v>
       </c>
       <c r="B373" t="s">
@@ -27353,7 +28004,7 @@
       <c r="I373" t="s">
         <v>1738</v>
       </c>
-      <c r="J373" t="n">
+      <c r="J373">
         <v>7502</v>
       </c>
       <c r="K373" t="s">
@@ -27382,7 +28033,7 @@
       </c>
     </row>
     <row r="374" spans="1:18">
-      <c r="A374" t="n">
+      <c r="A374">
         <v>3924482</v>
       </c>
       <c r="B374" t="s">
@@ -27409,7 +28060,7 @@
       <c r="I374" t="s">
         <v>951</v>
       </c>
-      <c r="J374" t="n">
+      <c r="J374">
         <v>153849</v>
       </c>
       <c r="K374" t="s">
@@ -27438,7 +28089,7 @@
       </c>
     </row>
     <row r="375" spans="1:18">
-      <c r="A375" t="n">
+      <c r="A375">
         <v>3338155</v>
       </c>
       <c r="B375" t="s">
@@ -27465,7 +28116,7 @@
       <c r="I375" t="s">
         <v>713</v>
       </c>
-      <c r="J375" t="n">
+      <c r="J375">
         <v>4128</v>
       </c>
       <c r="K375" t="s">
@@ -27494,7 +28145,7 @@
       </c>
     </row>
     <row r="376" spans="1:18">
-      <c r="A376" t="n">
+      <c r="A376">
         <v>1966481</v>
       </c>
       <c r="B376" t="s">
@@ -27521,7 +28172,7 @@
       <c r="I376" t="s">
         <v>57</v>
       </c>
-      <c r="J376" t="n">
+      <c r="J376">
         <v>133412</v>
       </c>
       <c r="K376" t="s">
@@ -27550,7 +28201,7 @@
       </c>
     </row>
     <row r="377" spans="1:18">
-      <c r="A377" t="n">
+      <c r="A377">
         <v>4051250</v>
       </c>
       <c r="B377" t="s">
@@ -27577,7 +28228,7 @@
       <c r="I377" t="s">
         <v>1754</v>
       </c>
-      <c r="J377" t="n">
+      <c r="J377">
         <v>90867</v>
       </c>
       <c r="K377" t="s">
@@ -27606,7 +28257,7 @@
       </c>
     </row>
     <row r="378" spans="1:18">
-      <c r="A378" t="n">
+      <c r="A378">
         <v>3132048</v>
       </c>
       <c r="B378" t="s">
@@ -27633,7 +28284,7 @@
       <c r="I378" t="s">
         <v>1760</v>
       </c>
-      <c r="J378" t="n">
+      <c r="J378">
         <v>16875</v>
       </c>
       <c r="K378" t="s">
@@ -27662,7 +28313,7 @@
       </c>
     </row>
     <row r="379" spans="1:18">
-      <c r="A379" t="n">
+      <c r="A379">
         <v>3730752</v>
       </c>
       <c r="B379" t="s">
@@ -27689,7 +28340,7 @@
       <c r="I379" t="s">
         <v>951</v>
       </c>
-      <c r="J379" t="n">
+      <c r="J379">
         <v>153849</v>
       </c>
       <c r="K379" t="s">
@@ -27718,7 +28369,7 @@
       </c>
     </row>
     <row r="380" spans="1:18">
-      <c r="A380" t="n">
+      <c r="A380">
         <v>1467767</v>
       </c>
       <c r="B380" t="s">
@@ -27745,7 +28396,7 @@
       <c r="I380" t="s">
         <v>1683</v>
       </c>
-      <c r="J380" t="n">
+      <c r="J380">
         <v>3058</v>
       </c>
       <c r="K380" t="s">
@@ -27774,7 +28425,7 @@
       </c>
     </row>
     <row r="381" spans="1:18">
-      <c r="A381" t="n">
+      <c r="A381">
         <v>3738948</v>
       </c>
       <c r="B381" t="s">
@@ -27801,7 +28452,7 @@
       <c r="I381" t="s">
         <v>1466</v>
       </c>
-      <c r="J381" t="n">
+      <c r="J381">
         <v>136443</v>
       </c>
       <c r="K381" t="s">
@@ -27830,7 +28481,7 @@
       </c>
     </row>
     <row r="382" spans="1:18">
-      <c r="A382" t="n">
+      <c r="A382">
         <v>2552384</v>
       </c>
       <c r="B382" t="s">
@@ -27857,7 +28508,7 @@
       <c r="I382" t="s">
         <v>1771</v>
       </c>
-      <c r="J382" t="n">
+      <c r="J382">
         <v>37236</v>
       </c>
       <c r="K382" t="s">
@@ -27886,7 +28537,7 @@
       </c>
     </row>
     <row r="383" spans="1:18">
-      <c r="A383" t="n">
+      <c r="A383">
         <v>3500627</v>
       </c>
       <c r="B383" t="s">
@@ -27913,7 +28564,7 @@
       <c r="I383" t="s">
         <v>57</v>
       </c>
-      <c r="J383" t="n">
+      <c r="J383">
         <v>201747</v>
       </c>
       <c r="K383" t="s">
@@ -27942,7 +28593,7 @@
       </c>
     </row>
     <row r="384" spans="1:18">
-      <c r="A384" t="n">
+      <c r="A384">
         <v>3558370</v>
       </c>
       <c r="B384" t="s">
@@ -27969,7 +28620,7 @@
       <c r="I384" t="s">
         <v>1781</v>
       </c>
-      <c r="J384" t="n">
+      <c r="J384">
         <v>3294</v>
       </c>
       <c r="K384" t="s">
@@ -27998,7 +28649,7 @@
       </c>
     </row>
     <row r="385" spans="1:18">
-      <c r="A385" t="n">
+      <c r="A385">
         <v>3670916</v>
       </c>
       <c r="B385" t="s">
@@ -28025,7 +28676,7 @@
       <c r="I385" t="s">
         <v>821</v>
       </c>
-      <c r="J385" t="n">
+      <c r="J385">
         <v>15175</v>
       </c>
       <c r="K385" t="s">
@@ -28054,7 +28705,7 @@
       </c>
     </row>
     <row r="386" spans="1:18">
-      <c r="A386" t="n">
+      <c r="A386">
         <v>4050977</v>
       </c>
       <c r="B386" t="s">
@@ -28081,7 +28732,7 @@
       <c r="I386" t="s">
         <v>1789</v>
       </c>
-      <c r="J386" t="n">
+      <c r="J386">
         <v>162053</v>
       </c>
       <c r="K386" t="s">
@@ -28110,7 +28761,7 @@
       </c>
     </row>
     <row r="387" spans="1:18">
-      <c r="A387" t="n">
+      <c r="A387">
         <v>3660218</v>
       </c>
       <c r="B387" t="s">
@@ -28137,7 +28788,7 @@
       <c r="I387" t="s">
         <v>57</v>
       </c>
-      <c r="J387" t="n">
+      <c r="J387">
         <v>262289</v>
       </c>
       <c r="K387" t="s">
@@ -28166,7 +28817,7 @@
       </c>
     </row>
     <row r="388" spans="1:18">
-      <c r="A388" t="n">
+      <c r="A388">
         <v>3303539</v>
       </c>
       <c r="B388" t="s">
@@ -28193,7 +28844,7 @@
       <c r="I388" t="s">
         <v>1803</v>
       </c>
-      <c r="J388" t="n">
+      <c r="J388">
         <v>5832</v>
       </c>
       <c r="K388" t="s">
@@ -28222,7 +28873,7 @@
       </c>
     </row>
     <row r="389" spans="1:18">
-      <c r="A389" t="n">
+      <c r="A389">
         <v>3313089</v>
       </c>
       <c r="B389" t="s">
@@ -28249,7 +28900,7 @@
       <c r="I389" t="s">
         <v>146</v>
       </c>
-      <c r="J389" t="n">
+      <c r="J389">
         <v>50702</v>
       </c>
       <c r="K389" t="s">
@@ -28278,7 +28929,7 @@
       </c>
     </row>
     <row r="390" spans="1:18">
-      <c r="A390" t="n">
+      <c r="A390">
         <v>3779391</v>
       </c>
       <c r="B390" t="s">
@@ -28305,7 +28956,7 @@
       <c r="I390" t="s">
         <v>1809</v>
       </c>
-      <c r="J390" t="n">
+      <c r="J390">
         <v>9127</v>
       </c>
       <c r="K390" t="s">
@@ -28334,7 +28985,7 @@
       </c>
     </row>
     <row r="391" spans="1:18">
-      <c r="A391" t="n">
+      <c r="A391">
         <v>1866362</v>
       </c>
       <c r="B391" t="s">
@@ -28361,7 +29012,7 @@
       <c r="I391" t="s">
         <v>1814</v>
       </c>
-      <c r="J391" t="n">
+      <c r="J391">
         <v>50604</v>
       </c>
       <c r="K391" t="s">
@@ -28390,7 +29041,7 @@
       </c>
     </row>
     <row r="392" spans="1:18">
-      <c r="A392" t="n">
+      <c r="A392">
         <v>1544904</v>
       </c>
       <c r="B392" t="s">
@@ -28417,7 +29068,7 @@
       <c r="I392" t="s">
         <v>1683</v>
       </c>
-      <c r="J392" t="n">
+      <c r="J392">
         <v>3058</v>
       </c>
       <c r="K392" t="s">
@@ -28446,7 +29097,7 @@
       </c>
     </row>
     <row r="393" spans="1:18">
-      <c r="A393" t="n">
+      <c r="A393">
         <v>3965923</v>
       </c>
       <c r="B393" t="s">
@@ -28473,7 +29124,7 @@
       <c r="I393" t="s">
         <v>1821</v>
       </c>
-      <c r="J393" t="n">
+      <c r="J393">
         <v>47107</v>
       </c>
       <c r="K393" t="s">
@@ -28502,7 +29153,7 @@
       </c>
     </row>
     <row r="394" spans="1:18">
-      <c r="A394" t="n">
+      <c r="A394">
         <v>3704803</v>
       </c>
       <c r="B394" t="s">
@@ -28529,7 +29180,7 @@
       <c r="I394" t="s">
         <v>1827</v>
       </c>
-      <c r="J394" t="n">
+      <c r="J394">
         <v>118031</v>
       </c>
       <c r="K394" t="s">
@@ -28558,7 +29209,7 @@
       </c>
     </row>
     <row r="395" spans="1:18">
-      <c r="A395" t="n">
+      <c r="A395">
         <v>3555362</v>
       </c>
       <c r="B395" t="s">
@@ -28585,7 +29236,7 @@
       <c r="I395" t="s">
         <v>1128</v>
       </c>
-      <c r="J395" t="n">
+      <c r="J395">
         <v>62</v>
       </c>
       <c r="K395" t="s">
@@ -28614,7 +29265,7 @@
       </c>
     </row>
     <row r="396" spans="1:18">
-      <c r="A396" t="n">
+      <c r="A396">
         <v>3641457</v>
       </c>
       <c r="B396" t="s">
@@ -28641,7 +29292,7 @@
       <c r="I396" t="s">
         <v>842</v>
       </c>
-      <c r="J396" t="n">
+      <c r="J396">
         <v>19281</v>
       </c>
       <c r="K396" t="s">
@@ -28670,7 +29321,7 @@
       </c>
     </row>
     <row r="397" spans="1:18">
-      <c r="A397" t="n">
+      <c r="A397">
         <v>3378458</v>
       </c>
       <c r="B397" t="s">
@@ -28697,7 +29348,7 @@
       <c r="I397" t="s">
         <v>1834</v>
       </c>
-      <c r="J397" t="n">
+      <c r="J397">
         <v>146798</v>
       </c>
       <c r="K397" t="s">
@@ -28726,7 +29377,7 @@
       </c>
     </row>
     <row r="398" spans="1:18">
-      <c r="A398" t="n">
+      <c r="A398">
         <v>3435502</v>
       </c>
       <c r="B398" t="s">
@@ -28753,7 +29404,7 @@
       <c r="I398" t="s">
         <v>951</v>
       </c>
-      <c r="J398" t="n">
+      <c r="J398">
         <v>153849</v>
       </c>
       <c r="K398" t="s">
@@ -28782,7 +29433,7 @@
       </c>
     </row>
     <row r="399" spans="1:18">
-      <c r="A399" t="n">
+      <c r="A399">
         <v>1747326</v>
       </c>
       <c r="B399" t="s">
@@ -28809,7 +29460,7 @@
       <c r="I399" t="s">
         <v>1449</v>
       </c>
-      <c r="J399" t="n">
+      <c r="J399">
         <v>35713</v>
       </c>
       <c r="K399" t="s">
@@ -28838,7 +29489,7 @@
       </c>
     </row>
     <row r="400" spans="1:18">
-      <c r="A400" t="n">
+      <c r="A400">
         <v>1844412</v>
       </c>
       <c r="B400" t="s">
@@ -28865,7 +29516,7 @@
       <c r="I400" t="s">
         <v>465</v>
       </c>
-      <c r="J400" t="n">
+      <c r="J400">
         <v>3328</v>
       </c>
       <c r="K400" t="s">
@@ -28894,7 +29545,7 @@
       </c>
     </row>
     <row r="401" spans="1:18">
-      <c r="A401" t="n">
+      <c r="A401">
         <v>1607675</v>
       </c>
       <c r="B401" t="s">
@@ -28921,7 +29572,7 @@
       <c r="I401" t="s">
         <v>1085</v>
       </c>
-      <c r="J401" t="n">
+      <c r="J401">
         <v>21218</v>
       </c>
       <c r="K401" t="s">
@@ -28950,7 +29601,7 @@
       </c>
     </row>
     <row r="402" spans="1:18">
-      <c r="A402" t="n">
+      <c r="A402">
         <v>3817494</v>
       </c>
       <c r="B402" t="s">
@@ -28977,7 +29628,7 @@
       <c r="I402" t="s">
         <v>57</v>
       </c>
-      <c r="J402" t="n">
+      <c r="J402">
         <v>192531</v>
       </c>
       <c r="K402" t="s">
@@ -29006,7 +29657,7 @@
       </c>
     </row>
     <row r="403" spans="1:18">
-      <c r="A403" t="n">
+      <c r="A403">
         <v>2244493</v>
       </c>
       <c r="B403" t="s">
@@ -29033,7 +29684,7 @@
       <c r="I403" t="s">
         <v>1852</v>
       </c>
-      <c r="J403" t="n">
+      <c r="J403">
         <v>25592</v>
       </c>
       <c r="K403" t="s">
@@ -29062,7 +29713,7 @@
       </c>
     </row>
     <row r="404" spans="1:18">
-      <c r="A404" t="n">
+      <c r="A404">
         <v>4025312</v>
       </c>
       <c r="B404" t="s">
@@ -29089,7 +29740,7 @@
       <c r="I404" t="s">
         <v>1858</v>
       </c>
-      <c r="J404" t="n">
+      <c r="J404">
         <v>95082</v>
       </c>
       <c r="K404" t="s">
@@ -29118,7 +29769,7 @@
       </c>
     </row>
     <row r="405" spans="1:18">
-      <c r="A405" t="n">
+      <c r="A405">
         <v>3469263</v>
       </c>
       <c r="B405" t="s">
@@ -29145,7 +29796,7 @@
       <c r="I405" t="s">
         <v>1637</v>
       </c>
-      <c r="J405" t="n">
+      <c r="J405">
         <v>547</v>
       </c>
       <c r="K405" t="s">
@@ -29174,7 +29825,7 @@
       </c>
     </row>
     <row r="406" spans="1:18">
-      <c r="A406" t="n">
+      <c r="A406">
         <v>3542328</v>
       </c>
       <c r="B406" t="s">
@@ -29201,7 +29852,7 @@
       <c r="I406" t="s">
         <v>684</v>
       </c>
-      <c r="J406" t="n">
+      <c r="J406">
         <v>18469</v>
       </c>
       <c r="K406" t="s">
@@ -29230,7 +29881,7 @@
       </c>
     </row>
     <row r="407" spans="1:18">
-      <c r="A407" t="n">
+      <c r="A407">
         <v>2440129</v>
       </c>
       <c r="B407" t="s">
@@ -29257,7 +29908,7 @@
       <c r="I407" t="s">
         <v>1683</v>
       </c>
-      <c r="J407" t="n">
+      <c r="J407">
         <v>3058</v>
       </c>
       <c r="K407" t="s">
@@ -29286,7 +29937,7 @@
       </c>
     </row>
     <row r="408" spans="1:18">
-      <c r="A408" t="n">
+      <c r="A408">
         <v>3733020</v>
       </c>
       <c r="B408" t="s">
@@ -29313,7 +29964,7 @@
       <c r="I408" t="s">
         <v>57</v>
       </c>
-      <c r="J408" t="n">
+      <c r="J408">
         <v>179122</v>
       </c>
       <c r="K408" t="s">
@@ -29342,7 +29993,7 @@
       </c>
     </row>
     <row r="409" spans="1:18">
-      <c r="A409" t="n">
+      <c r="A409">
         <v>3990790</v>
       </c>
       <c r="B409" t="s">
@@ -29369,7 +30020,7 @@
       <c r="I409" t="s">
         <v>57</v>
       </c>
-      <c r="J409" t="n">
+      <c r="J409">
         <v>173334</v>
       </c>
       <c r="K409" t="s">
@@ -29398,7 +30049,7 @@
       </c>
     </row>
     <row r="410" spans="1:18">
-      <c r="A410" t="n">
+      <c r="A410">
         <v>3707166</v>
       </c>
       <c r="B410" t="s">
@@ -29425,7 +30076,7 @@
       <c r="I410" t="s">
         <v>1884</v>
       </c>
-      <c r="J410" t="n">
+      <c r="J410">
         <v>35422</v>
       </c>
       <c r="K410" t="s">
@@ -29454,7 +30105,7 @@
       </c>
     </row>
     <row r="411" spans="1:18">
-      <c r="A411" t="n">
+      <c r="A411">
         <v>3839473</v>
       </c>
       <c r="B411" t="s">
@@ -29481,7 +30132,7 @@
       <c r="I411" t="s">
         <v>1888</v>
       </c>
-      <c r="J411" t="n">
+      <c r="J411">
         <v>107423</v>
       </c>
       <c r="K411" t="s">
@@ -29510,7 +30161,7 @@
       </c>
     </row>
     <row r="412" spans="1:18">
-      <c r="A412" t="n">
+      <c r="A412">
         <v>3484056</v>
       </c>
       <c r="B412" t="s">
@@ -29537,7 +30188,7 @@
       <c r="I412" t="s">
         <v>1660</v>
       </c>
-      <c r="J412" t="n">
+      <c r="J412">
         <v>50784</v>
       </c>
       <c r="K412" t="s">
@@ -29566,7 +30217,7 @@
       </c>
     </row>
     <row r="413" spans="1:18">
-      <c r="A413" t="n">
+      <c r="A413">
         <v>3863547</v>
       </c>
       <c r="B413" t="s">
@@ -29593,7 +30244,7 @@
       <c r="I413" t="s">
         <v>1896</v>
       </c>
-      <c r="J413" t="n">
+      <c r="J413">
         <v>254124</v>
       </c>
       <c r="K413" t="s">
@@ -29622,7 +30273,7 @@
       </c>
     </row>
     <row r="414" spans="1:18">
-      <c r="A414" t="n">
+      <c r="A414">
         <v>3515819</v>
       </c>
       <c r="B414" t="s">
@@ -29649,7 +30300,7 @@
       <c r="I414" t="s">
         <v>1128</v>
       </c>
-      <c r="J414" t="n">
+      <c r="J414">
         <v>62</v>
       </c>
       <c r="K414" t="s">
@@ -29678,7 +30329,7 @@
       </c>
     </row>
     <row r="415" spans="1:18">
-      <c r="A415" t="n">
+      <c r="A415">
         <v>3896262</v>
       </c>
       <c r="B415" t="s">
@@ -29705,7 +30356,7 @@
       <c r="I415" t="s">
         <v>1903</v>
       </c>
-      <c r="J415" t="n">
+      <c r="J415">
         <v>222172</v>
       </c>
       <c r="K415" t="s">
@@ -29734,7 +30385,7 @@
       </c>
     </row>
     <row r="416" spans="1:18">
-      <c r="A416" t="n">
+      <c r="A416">
         <v>3417246</v>
       </c>
       <c r="B416" t="s">
@@ -29761,7 +30412,7 @@
       <c r="I416" t="s">
         <v>1908</v>
       </c>
-      <c r="J416" t="n">
+      <c r="J416">
         <v>384</v>
       </c>
       <c r="K416" t="s">
@@ -29790,7 +30441,7 @@
       </c>
     </row>
     <row r="417" spans="1:18">
-      <c r="A417" t="n">
+      <c r="A417">
         <v>3873638</v>
       </c>
       <c r="B417" t="s">
@@ -29817,7 +30468,7 @@
       <c r="I417" t="s">
         <v>1092</v>
       </c>
-      <c r="J417" t="n">
+      <c r="J417">
         <v>219252</v>
       </c>
       <c r="K417" t="s">
@@ -29846,7 +30497,7 @@
       </c>
     </row>
     <row r="418" spans="1:18">
-      <c r="A418" t="n">
+      <c r="A418">
         <v>3691255</v>
       </c>
       <c r="B418" t="s">
@@ -29873,7 +30524,7 @@
       <c r="I418" t="s">
         <v>622</v>
       </c>
-      <c r="J418" t="n">
+      <c r="J418">
         <v>1650</v>
       </c>
       <c r="K418" t="s">
@@ -29902,7 +30553,7 @@
       </c>
     </row>
     <row r="419" spans="1:18">
-      <c r="A419" t="n">
+      <c r="A419">
         <v>4019230</v>
       </c>
       <c r="B419" t="s">
@@ -29929,7 +30580,7 @@
       <c r="I419" t="s">
         <v>1920</v>
       </c>
-      <c r="J419" t="n">
+      <c r="J419">
         <v>303777</v>
       </c>
       <c r="K419" t="s">
@@ -29958,7 +30609,7 @@
       </c>
     </row>
     <row r="420" spans="1:18">
-      <c r="A420" t="n">
+      <c r="A420">
         <v>3939982</v>
       </c>
       <c r="B420" t="s">
@@ -29985,7 +30636,7 @@
       <c r="I420" t="s">
         <v>1927</v>
       </c>
-      <c r="J420" t="n">
+      <c r="J420">
         <v>20863</v>
       </c>
       <c r="K420" t="s">
@@ -30014,7 +30665,7 @@
       </c>
     </row>
     <row r="421" spans="1:18">
-      <c r="A421" t="n">
+      <c r="A421">
         <v>2718962</v>
       </c>
       <c r="B421" t="s">
@@ -30041,7 +30692,7 @@
       <c r="I421" t="s">
         <v>1466</v>
       </c>
-      <c r="J421" t="n">
+      <c r="J421">
         <v>136443</v>
       </c>
       <c r="K421" t="s">
@@ -30070,7 +30721,7 @@
       </c>
     </row>
     <row r="422" spans="1:18">
-      <c r="A422" t="n">
+      <c r="A422">
         <v>3442003</v>
       </c>
       <c r="B422" t="s">
@@ -30097,7 +30748,7 @@
       <c r="I422" t="s">
         <v>1683</v>
       </c>
-      <c r="J422" t="n">
+      <c r="J422">
         <v>3058</v>
       </c>
       <c r="K422" t="s">
@@ -30126,7 +30777,7 @@
       </c>
     </row>
     <row r="423" spans="1:18">
-      <c r="A423" t="n">
+      <c r="A423">
         <v>2118166</v>
       </c>
       <c r="B423" t="s">
@@ -30153,7 +30804,7 @@
       <c r="I423" t="s">
         <v>1936</v>
       </c>
-      <c r="J423" t="n">
+      <c r="J423">
         <v>3770</v>
       </c>
       <c r="K423" t="s">
@@ -30182,7 +30833,7 @@
       </c>
     </row>
     <row r="424" spans="1:18">
-      <c r="A424" t="n">
+      <c r="A424">
         <v>3372759</v>
       </c>
       <c r="B424" t="s">
@@ -30209,7 +30860,7 @@
       <c r="I424" t="s">
         <v>57</v>
       </c>
-      <c r="J424" t="n">
+      <c r="J424">
         <v>142890</v>
       </c>
       <c r="K424" t="s">
@@ -30238,7 +30889,7 @@
       </c>
     </row>
     <row r="425" spans="1:18">
-      <c r="A425" t="n">
+      <c r="A425">
         <v>3608503</v>
       </c>
       <c r="B425" t="s">
@@ -30265,7 +30916,7 @@
       <c r="I425" t="s">
         <v>1946</v>
       </c>
-      <c r="J425" t="n">
+      <c r="J425">
         <v>280</v>
       </c>
       <c r="K425" t="s">
@@ -30294,7 +30945,7 @@
       </c>
     </row>
     <row r="426" spans="1:18">
-      <c r="A426" t="n">
+      <c r="A426">
         <v>1909390</v>
       </c>
       <c r="B426" t="s">
@@ -30321,7 +30972,7 @@
       <c r="I426" t="s">
         <v>1952</v>
       </c>
-      <c r="J426" t="n">
+      <c r="J426">
         <v>28121</v>
       </c>
       <c r="K426" t="s">
@@ -30350,7 +31001,7 @@
       </c>
     </row>
     <row r="427" spans="1:18">
-      <c r="A427" t="n">
+      <c r="A427">
         <v>4040247</v>
       </c>
       <c r="B427" t="s">
@@ -30377,7 +31028,7 @@
       <c r="I427" t="s">
         <v>1958</v>
       </c>
-      <c r="J427" t="n">
+      <c r="J427">
         <v>356</v>
       </c>
       <c r="K427" t="s">
@@ -30406,7 +31057,7 @@
       </c>
     </row>
     <row r="428" spans="1:18">
-      <c r="A428" t="n">
+      <c r="A428">
         <v>3587022</v>
       </c>
       <c r="B428" t="s">
@@ -30433,7 +31084,7 @@
       <c r="I428" t="s">
         <v>1128</v>
       </c>
-      <c r="J428" t="n">
+      <c r="J428">
         <v>62</v>
       </c>
       <c r="K428" t="s">
@@ -30462,7 +31113,7 @@
       </c>
     </row>
     <row r="429" spans="1:18">
-      <c r="A429" t="n">
+      <c r="A429">
         <v>2927715</v>
       </c>
       <c r="B429" t="s">
@@ -30489,7 +31140,7 @@
       <c r="I429" t="s">
         <v>1964</v>
       </c>
-      <c r="J429" t="n">
+      <c r="J429">
         <v>142806</v>
       </c>
       <c r="K429" t="s">
@@ -30518,7 +31169,7 @@
       </c>
     </row>
     <row r="430" spans="1:18">
-      <c r="A430" t="n">
+      <c r="A430">
         <v>4026787</v>
       </c>
       <c r="B430" t="s">
@@ -30545,7 +31196,7 @@
       <c r="I430" t="s">
         <v>146</v>
       </c>
-      <c r="J430" t="n">
+      <c r="J430">
         <v>50702</v>
       </c>
       <c r="K430" t="s">
@@ -30574,7 +31225,7 @@
       </c>
     </row>
     <row r="431" spans="1:18">
-      <c r="A431" t="n">
+      <c r="A431">
         <v>3485560</v>
       </c>
       <c r="B431" t="s">
@@ -30601,7 +31252,7 @@
       <c r="I431" t="s">
         <v>1972</v>
       </c>
-      <c r="J431" t="n">
+      <c r="J431">
         <v>9149</v>
       </c>
       <c r="K431" t="s">
@@ -30630,7 +31281,7 @@
       </c>
     </row>
     <row r="432" spans="1:18">
-      <c r="A432" t="n">
+      <c r="A432">
         <v>3409498</v>
       </c>
       <c r="B432" t="s">
@@ -30657,7 +31308,7 @@
       <c r="I432" t="s">
         <v>1979</v>
       </c>
-      <c r="J432" t="n">
+      <c r="J432">
         <v>1531</v>
       </c>
       <c r="K432" t="s">
@@ -30686,7 +31337,7 @@
       </c>
     </row>
     <row r="433" spans="1:18">
-      <c r="A433" t="n">
+      <c r="A433">
         <v>3984912</v>
       </c>
       <c r="B433" t="s">
@@ -30713,7 +31364,7 @@
       <c r="I433" t="s">
         <v>1986</v>
       </c>
-      <c r="J433" t="n">
+      <c r="J433">
         <v>29682</v>
       </c>
       <c r="K433" t="s">
@@ -30742,7 +31393,7 @@
       </c>
     </row>
     <row r="434" spans="1:18">
-      <c r="A434" t="n">
+      <c r="A434">
         <v>2953479</v>
       </c>
       <c r="B434" t="s">
@@ -30769,7 +31420,7 @@
       <c r="I434" t="s">
         <v>1696</v>
       </c>
-      <c r="J434" t="n">
+      <c r="J434">
         <v>17049</v>
       </c>
       <c r="K434" t="s">
@@ -30798,7 +31449,7 @@
       </c>
     </row>
     <row r="435" spans="1:18">
-      <c r="A435" t="n">
+      <c r="A435">
         <v>3660201</v>
       </c>
       <c r="B435" t="s">
@@ -30825,7 +31476,7 @@
       <c r="I435" t="s">
         <v>57</v>
       </c>
-      <c r="J435" t="n">
+      <c r="J435">
         <v>262289</v>
       </c>
       <c r="K435" t="s">
@@ -30854,7 +31505,7 @@
       </c>
     </row>
     <row r="436" spans="1:18">
-      <c r="A436" t="n">
+      <c r="A436">
         <v>3706843</v>
       </c>
       <c r="B436" t="s">
@@ -30881,7 +31532,7 @@
       <c r="I436" t="s">
         <v>1809</v>
       </c>
-      <c r="J436" t="n">
+      <c r="J436">
         <v>9127</v>
       </c>
       <c r="K436" t="s">
@@ -30910,7 +31561,7 @@
       </c>
     </row>
     <row r="437" spans="1:18">
-      <c r="A437" t="n">
+      <c r="A437">
         <v>1855452</v>
       </c>
       <c r="B437" t="s">
@@ -30937,7 +31588,7 @@
       <c r="I437" t="s">
         <v>1683</v>
       </c>
-      <c r="J437" t="n">
+      <c r="J437">
         <v>3058</v>
       </c>
       <c r="K437" t="s">
@@ -30966,7 +31617,7 @@
       </c>
     </row>
     <row r="438" spans="1:18">
-      <c r="A438" t="n">
+      <c r="A438">
         <v>3393427</v>
       </c>
       <c r="B438" t="s">
@@ -30993,7 +31644,7 @@
       <c r="I438" t="s">
         <v>146</v>
       </c>
-      <c r="J438" t="n">
+      <c r="J438">
         <v>50702</v>
       </c>
       <c r="K438" t="s">
@@ -31022,7 +31673,7 @@
       </c>
     </row>
     <row r="439" spans="1:18">
-      <c r="A439" t="n">
+      <c r="A439">
         <v>3383151</v>
       </c>
       <c r="B439" t="s">
@@ -31049,7 +31700,7 @@
       <c r="I439" t="s">
         <v>2000</v>
       </c>
-      <c r="J439" t="n">
+      <c r="J439">
         <v>33627</v>
       </c>
       <c r="K439" t="s">
@@ -31078,7 +31729,7 @@
       </c>
     </row>
     <row r="440" spans="1:18">
-      <c r="A440" t="n">
+      <c r="A440">
         <v>3916907</v>
       </c>
       <c r="B440" t="s">
@@ -31105,7 +31756,7 @@
       <c r="I440" t="s">
         <v>2006</v>
       </c>
-      <c r="J440" t="n">
+      <c r="J440">
         <v>19875</v>
       </c>
       <c r="K440" t="s">
@@ -31134,7 +31785,7 @@
       </c>
     </row>
     <row r="441" spans="1:18">
-      <c r="A441" t="n">
+      <c r="A441">
         <v>4042378</v>
       </c>
       <c r="B441" t="s">
@@ -31161,7 +31812,7 @@
       <c r="I441" t="s">
         <v>1958</v>
       </c>
-      <c r="J441" t="n">
+      <c r="J441">
         <v>356</v>
       </c>
       <c r="K441" t="s">
@@ -31190,7 +31841,7 @@
       </c>
     </row>
     <row r="442" spans="1:18">
-      <c r="A442" t="n">
+      <c r="A442">
         <v>3775079</v>
       </c>
       <c r="B442" t="s">
@@ -31217,7 +31868,7 @@
       <c r="I442" t="s">
         <v>921</v>
       </c>
-      <c r="J442" t="n">
+      <c r="J442">
         <v>520</v>
       </c>
       <c r="K442" t="s">
@@ -31246,7 +31897,7 @@
       </c>
     </row>
     <row r="443" spans="1:18">
-      <c r="A443" t="n">
+      <c r="A443">
         <v>2178492</v>
       </c>
       <c r="B443" t="s">
@@ -31273,7 +31924,7 @@
       <c r="I443" t="s">
         <v>459</v>
       </c>
-      <c r="J443" t="n">
+      <c r="J443">
         <v>71931</v>
       </c>
       <c r="K443" t="s">
@@ -31302,7 +31953,7 @@
       </c>
     </row>
     <row r="444" spans="1:18">
-      <c r="A444" t="n">
+      <c r="A444">
         <v>3446623</v>
       </c>
       <c r="B444" t="s">
@@ -31329,7 +31980,7 @@
       <c r="I444" t="s">
         <v>914</v>
       </c>
-      <c r="J444" t="n">
+      <c r="J444">
         <v>6364</v>
       </c>
       <c r="K444" t="s">
@@ -31358,7 +32009,7 @@
       </c>
     </row>
     <row r="445" spans="1:18">
-      <c r="A445" t="n">
+      <c r="A445">
         <v>3284227</v>
       </c>
       <c r="B445" t="s">
@@ -31385,7 +32036,7 @@
       <c r="I445" t="s">
         <v>1852</v>
       </c>
-      <c r="J445" t="n">
+      <c r="J445">
         <v>25592</v>
       </c>
       <c r="K445" t="s">
@@ -31414,7 +32065,7 @@
       </c>
     </row>
     <row r="446" spans="1:18">
-      <c r="A446" t="n">
+      <c r="A446">
         <v>3483865</v>
       </c>
       <c r="B446" t="s">
@@ -31441,7 +32092,7 @@
       <c r="I446" t="s">
         <v>1809</v>
       </c>
-      <c r="J446" t="n">
+      <c r="J446">
         <v>9127</v>
       </c>
       <c r="K446" t="s">
@@ -31470,7 +32121,7 @@
       </c>
     </row>
     <row r="447" spans="1:18">
-      <c r="A447" t="n">
+      <c r="A447">
         <v>3873297</v>
       </c>
       <c r="B447" t="s">
@@ -31497,7 +32148,7 @@
       <c r="I447" t="s">
         <v>973</v>
       </c>
-      <c r="J447" t="n">
+      <c r="J447">
         <v>13809</v>
       </c>
       <c r="K447" t="s">
@@ -31526,7 +32177,7 @@
       </c>
     </row>
     <row r="448" spans="1:18">
-      <c r="A448" t="n">
+      <c r="A448">
         <v>3259848</v>
       </c>
       <c r="B448" t="s">
@@ -31553,7 +32204,7 @@
       <c r="I448" t="s">
         <v>2027</v>
       </c>
-      <c r="J448" t="n">
+      <c r="J448">
         <v>1638</v>
       </c>
       <c r="K448" t="s">
@@ -31582,7 +32233,7 @@
       </c>
     </row>
     <row r="449" spans="1:18">
-      <c r="A449" t="n">
+      <c r="A449">
         <v>3802382</v>
       </c>
       <c r="B449" t="s">
@@ -31609,7 +32260,7 @@
       <c r="I449" t="s">
         <v>2033</v>
       </c>
-      <c r="J449" t="n">
+      <c r="J449">
         <v>34573</v>
       </c>
       <c r="K449" t="s">
@@ -31638,7 +32289,7 @@
       </c>
     </row>
     <row r="450" spans="1:18">
-      <c r="A450" t="n">
+      <c r="A450">
         <v>4051566</v>
       </c>
       <c r="B450" t="s">
@@ -31665,7 +32316,7 @@
       <c r="I450" t="s">
         <v>2041</v>
       </c>
-      <c r="J450" t="n">
+      <c r="J450">
         <v>65313</v>
       </c>
       <c r="K450" t="s">
@@ -31694,7 +32345,7 @@
       </c>
     </row>
     <row r="451" spans="1:18">
-      <c r="A451" t="n">
+      <c r="A451">
         <v>4049264</v>
       </c>
       <c r="B451" t="s">
@@ -31721,7 +32372,7 @@
       <c r="I451" t="s">
         <v>1920</v>
       </c>
-      <c r="J451" t="n">
+      <c r="J451">
         <v>300712</v>
       </c>
       <c r="K451" t="s">
@@ -31750,6 +32401,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>